--- a/reports/模型结果记录.xlsx
+++ b/reports/模型结果记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programs\time_series_relevant\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luolei/Documents/Git_Repository_Dreisteine/time_series_relevant/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3021B432-6D43-4DB6-B0DA-4382FF54E749}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB44A7A-C5CE-E04D-BD58-3905FBE9EF1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{CA83BF3C-4499-A241-A127-64E264066C21}"/>
+    <workbookView xWindow="1480" yWindow="460" windowWidth="27320" windowHeight="17540" activeTab="1" xr2:uid="{CA83BF3C-4499-A241-A127-64E264066C21}"/>
   </bookViews>
   <sheets>
     <sheet name="模型说明" sheetId="3" r:id="rId1"/>
@@ -194,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -535,76 +535,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>2.68114031711595</c:v>
+                  <c:v>2.4473886841580299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2982780256241302</c:v>
+                  <c:v>3.0862326688405601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7777636968920802</c:v>
+                  <c:v>4.3557468080847004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9322619249154398</c:v>
+                  <c:v>6.0902254666286204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6649519666964299</c:v>
+                  <c:v>8.20550420059309</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.8476483043963</c:v>
+                  <c:v>10.626290026968499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.1847047552696</c:v>
+                  <c:v>13.187267547686901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.507146617530299</c:v>
+                  <c:v>15.7753222280563</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.549290276861299</c:v>
+                  <c:v>18.2253277875839</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.275635151333699</c:v>
+                  <c:v>20.4693871175913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.242817329047401</c:v>
+                  <c:v>22.313934701606001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.870650663886899</c:v>
+                  <c:v>23.865821280369101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.105582664875701</c:v>
+                  <c:v>24.991423088997401</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.178538509852601</c:v>
+                  <c:v>25.806709320731098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.219894277326397</c:v>
+                  <c:v>26.5656117813705</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.235699934210103</c:v>
+                  <c:v>27.122316108318799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.139023550003898</c:v>
+                  <c:v>27.6246396674767</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.091861358872499</c:v>
+                  <c:v>28.0974159582528</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.599579915578502</c:v>
+                  <c:v>28.6118697271176</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.223314231084203</c:v>
+                  <c:v>29.027057659884299</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36.575349686324898</c:v>
+                  <c:v>29.420343191141502</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.688722305452401</c:v>
+                  <c:v>29.702442499681101</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36.942026394883797</c:v>
+                  <c:v>30.181686557447598</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37.033271372337701</c:v>
+                  <c:v>30.565394654893598</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>42.379133083652</c:v>
@@ -1018,76 +1018,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>3.6968178398971401</c:v>
+                  <c:v>3.7398216871211698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6238671516034699</c:v>
+                  <c:v>4.2768940794388604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0383257853044698</c:v>
+                  <c:v>6.07690631688883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.7414972461048</c:v>
+                  <c:v>8.8414719831093809</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.2113784271853</c:v>
+                  <c:v>12.231745285400599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.3015380357146</c:v>
+                  <c:v>16.108603396151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.646462643334502</c:v>
+                  <c:v>20.329282591828299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.848276258320801</c:v>
+                  <c:v>24.624441199606199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.521512589954</c:v>
+                  <c:v>28.699807939986801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.561216739179301</c:v>
+                  <c:v>32.307304234612801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.580101196220497</c:v>
+                  <c:v>35.3518185604959</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.134966519600802</c:v>
+                  <c:v>37.773823701150498</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.055006894707603</c:v>
+                  <c:v>39.593169381610402</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.918991680185599</c:v>
+                  <c:v>40.943585331485899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.516467352908002</c:v>
+                  <c:v>41.997516458093301</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52.0688146536395</c:v>
+                  <c:v>42.988419182603899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>53.693175827273997</c:v>
+                  <c:v>43.729120152574602</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>55.068356646923498</c:v>
+                  <c:v>44.653028484250498</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56.295830495742798</c:v>
+                  <c:v>45.516065112249699</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>57.399016751906302</c:v>
+                  <c:v>46.3563496785358</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.149080257677603</c:v>
+                  <c:v>47.2491338179452</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>58.662175256675702</c:v>
+                  <c:v>48.355449012147297</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>58.934440041504203</c:v>
+                  <c:v>49.2064201033957</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>59.3370541264688</c:v>
+                  <c:v>50.508734460963403</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>65.818702121959006</c:v>
@@ -1501,76 +1501,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>3.4650725226060399</c:v>
+                  <c:v>4.2883565232886696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6778512207289902</c:v>
+                  <c:v>4.51126272279914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7445397106104297</c:v>
+                  <c:v>5.2978031694851797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4473652712212797</c:v>
+                  <c:v>6.49110206310612</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5501339454572793</c:v>
+                  <c:v>8.0925109933862291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.9515032088665</c:v>
+                  <c:v>9.8997359091603805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.456849221813901</c:v>
+                  <c:v>11.7900309375225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.072503412845101</c:v>
+                  <c:v>13.7092670244744</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.044818424952499</c:v>
+                  <c:v>15.567686762899701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.7082216531733</c:v>
+                  <c:v>17.318876853454402</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.804807820001798</c:v>
+                  <c:v>18.922890447667701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.591060710415</c:v>
+                  <c:v>20.332861953626999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.818212401605798</c:v>
+                  <c:v>21.423353070681902</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.266617487596399</c:v>
+                  <c:v>22.267233281212</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.577481604352901</c:v>
+                  <c:v>23.006276702208599</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.7367610475272</c:v>
+                  <c:v>23.411143854542999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.3263587849126</c:v>
+                  <c:v>23.7401914108734</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.6020938608691</c:v>
+                  <c:v>24.049959277123101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.075048921832099</c:v>
+                  <c:v>24.0721799208962</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.3403959097704</c:v>
+                  <c:v>24.371081432604701</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.108511083024698</c:v>
+                  <c:v>24.592477839585701</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25.443808418967802</c:v>
+                  <c:v>24.828074659474101</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25.494202616437601</c:v>
+                  <c:v>25.093322938984802</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.515370113491599</c:v>
+                  <c:v>25.1307062191146</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>28.774464451737199</c:v>
@@ -1984,76 +1984,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>3.0301140779064699E-2</c:v>
+                  <c:v>2.9831914573639502E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3936348992610402E-2</c:v>
+                  <c:v>3.8689782345734697E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1874925900703701E-2</c:v>
+                  <c:v>5.5817196782683702E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9736150161755004E-2</c:v>
+                  <c:v>7.9370043998666803E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.117944542141693</c:v>
+                  <c:v>0.108178263142005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.161422785139818</c:v>
+                  <c:v>0.139819732382509</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20751180340178499</c:v>
+                  <c:v>0.17213454716889201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25186531749149599</c:v>
+                  <c:v>0.20245447043413201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.290917859791609</c:v>
+                  <c:v>0.22988408175309</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32391379168984302</c:v>
+                  <c:v>0.252804206510228</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35014760058333799</c:v>
+                  <c:v>0.27128736602149001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36916250057623401</c:v>
+                  <c:v>0.28537058431059797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38275059045473397</c:v>
+                  <c:v>0.29584288612901999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.396611215613414</c:v>
+                  <c:v>0.305062356229856</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40618507967155498</c:v>
+                  <c:v>0.31213467994577399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41562429753957603</c:v>
+                  <c:v>0.317425488184225</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.42296386295599597</c:v>
+                  <c:v>0.32299367568692899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.43156081058755702</c:v>
+                  <c:v>0.329313512268192</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.43684780220755098</c:v>
+                  <c:v>0.33277852302510502</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.44381215416437902</c:v>
+                  <c:v>0.33684479580214499</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.44796036026984498</c:v>
+                  <c:v>0.34111773298627501</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.45051974692500901</c:v>
+                  <c:v>0.34603880352778099</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.45081763383569701</c:v>
+                  <c:v>0.35078845549794901</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.45415079367332101</c:v>
+                  <c:v>0.355459405221771</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.52868250261860705</c:v>
@@ -2467,76 +2467,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>1.1201152055118899</c:v>
+                  <c:v>1.1792738242795999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.34567093848511</c:v>
+                  <c:v>1.31008719032363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2294768606630102</c:v>
+                  <c:v>1.91735488032858</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6409940893527399</c:v>
+                  <c:v>2.85145400129444</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4936135481769197</c:v>
+                  <c:v>4.0285682362975797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6345419286648903</c:v>
+                  <c:v>5.3934814627604402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8320126458174997</c:v>
+                  <c:v>6.7461228189714904</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.9561385076547</c:v>
+                  <c:v>8.0888645774446299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.7621713089731</c:v>
+                  <c:v>9.2656416348867499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.208604820515401</c:v>
+                  <c:v>10.268852748106999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.230569252508499</c:v>
+                  <c:v>10.9837766115122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.837751677309701</c:v>
+                  <c:v>11.5393597020812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.184273336288602</c:v>
+                  <c:v>11.9178481851966</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.390948739249499</c:v>
+                  <c:v>12.2127941647403</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.507608175286901</c:v>
+                  <c:v>12.420814286082599</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.7337180993588</c:v>
+                  <c:v>12.5607577141185</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.914429484999101</c:v>
+                  <c:v>12.685161107469099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.243068415295902</c:v>
+                  <c:v>12.789143539912599</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.570231052382699</c:v>
+                  <c:v>12.903674176938299</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.843108253275599</c:v>
+                  <c:v>12.945338152758801</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.060197861701599</c:v>
+                  <c:v>13.1066955553214</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.300305862543699</c:v>
+                  <c:v>13.3752570992849</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.5489169035435</c:v>
+                  <c:v>13.595057796082701</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.782717150764601</c:v>
+                  <c:v>13.951387858226401</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>21.011665085988799</c:v>
@@ -2950,76 +2950,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>2.8797723700376001</c:v>
+                  <c:v>2.9929663465601899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.24378907380911</c:v>
+                  <c:v>3.2229142118192802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6725713327069496</c:v>
+                  <c:v>4.2250462930367298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7331973487902301</c:v>
+                  <c:v>5.6040854776515499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3896000678225509</c:v>
+                  <c:v>7.2077461375264997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.4001591532832</c:v>
+                  <c:v>8.9350881102839708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.470529122920301</c:v>
+                  <c:v>10.651982926782299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.313048313937401</c:v>
+                  <c:v>12.324463648292999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.7196487904076</c:v>
+                  <c:v>13.8671356906088</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.637289776115601</c:v>
+                  <c:v>15.0940960244913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.011315311707801</c:v>
+                  <c:v>16.044983273421501</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.961712398492701</c:v>
+                  <c:v>16.7160870035835</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.4775284057731</c:v>
+                  <c:v>17.098913912013501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.7507371688557</c:v>
+                  <c:v>17.2533399278757</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.900946216171501</c:v>
+                  <c:v>17.232312503352698</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.945398457958099</c:v>
+                  <c:v>17.2001221755609</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.1299881217093</c:v>
+                  <c:v>17.112944441780002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.3595941834317</c:v>
+                  <c:v>17.083298954864301</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.671228262779099</c:v>
+                  <c:v>17.1065234213754</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.904554458281801</c:v>
+                  <c:v>17.144431442556598</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.249863944070398</c:v>
+                  <c:v>17.171858289198401</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.620530221432499</c:v>
+                  <c:v>17.312974759953999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.175081624394402</c:v>
+                  <c:v>17.573912312025101</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28.556518836147099</c:v>
+                  <c:v>17.8957893663645</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>26.767499844382701</c:v>
@@ -3792,76 +3792,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>3.9356442219095298</c:v>
+                  <c:v>3.42225148067139</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.97403999309231</c:v>
+                  <c:v>4.4256160695477504</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2704598933120996</c:v>
+                  <c:v>6.4554313538758903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.525082549634099</c:v>
+                  <c:v>9.3710891413973894</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.707552182460599</c:v>
+                  <c:v>12.9599650213781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.571497486445299</c:v>
+                  <c:v>17.1693925627516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.7489571767195</c:v>
+                  <c:v>21.751463884250001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.845998552973899</c:v>
+                  <c:v>26.348281931268001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.334792559620396</c:v>
+                  <c:v>30.6146456729332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.1252897673915</c:v>
+                  <c:v>34.405941233805599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.7276391918586</c:v>
+                  <c:v>37.407967859770999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.716575671161202</c:v>
+                  <c:v>39.776535663439603</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44.161212566205897</c:v>
+                  <c:v>41.479493726184899</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.475425766879098</c:v>
+                  <c:v>42.687248185627702</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.822150533684798</c:v>
+                  <c:v>44.184646146172902</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48.136255705564103</c:v>
+                  <c:v>45.334753699204498</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.312809755197399</c:v>
+                  <c:v>46.141748137779999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.4947361998654</c:v>
+                  <c:v>46.747422490681402</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.2363110423032</c:v>
+                  <c:v>47.148862345530603</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.981858106658002</c:v>
+                  <c:v>47.293837711769299</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>52.4611486421229</c:v>
+                  <c:v>47.482881130735201</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52.631921136057201</c:v>
+                  <c:v>47.434967360407498</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52.863295220321</c:v>
+                  <c:v>47.652020044332502</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>52.932423319651399</c:v>
+                  <c:v>47.690252950072001</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>58.257301485742602</c:v>
@@ -4275,76 +4275,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>5.30215690905613</c:v>
+                  <c:v>5.7798395631505102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7003493838033403</c:v>
+                  <c:v>6.6299780459504101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.2614223856504</c:v>
+                  <c:v>9.2194358667780705</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.5899880627684</c:v>
+                  <c:v>13.230591251143901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.211157308814499</c:v>
+                  <c:v>18.312123630704399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.7453065702788</c:v>
+                  <c:v>24.216245071443598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.621122595497901</c:v>
+                  <c:v>30.608402562764098</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.182594899382103</c:v>
+                  <c:v>37.141685834398402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.693494921076102</c:v>
+                  <c:v>43.201086868311698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.982870683862302</c:v>
+                  <c:v>48.436672825958702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.6525102923639</c:v>
+                  <c:v>52.742514631823198</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63.531453673917497</c:v>
+                  <c:v>56.061778466161797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.6730120449743</c:v>
+                  <c:v>58.543351770444197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>67.916180912889104</c:v>
+                  <c:v>60.5151905044982</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70.012488113717794</c:v>
+                  <c:v>62.387056412434902</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72.065609000170994</c:v>
+                  <c:v>64.202462534226001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.189172471185501</c:v>
+                  <c:v>65.703072372122506</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>76.046172312966704</c:v>
+                  <c:v>67.243138787275797</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>77.681183572020601</c:v>
+                  <c:v>68.466543290734805</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>79.126422917141895</c:v>
+                  <c:v>69.186704965851902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80.168027357941597</c:v>
+                  <c:v>69.736409253606695</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>80.895202249872597</c:v>
+                  <c:v>70.855702862161394</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>81.215299198750799</c:v>
+                  <c:v>71.3842683476758</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>81.593686081977793</c:v>
+                  <c:v>73.058270521866305</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>88.813420830017506</c:v>
@@ -4758,76 +4758,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>5.1450434161905498</c:v>
+                  <c:v>6.4451163577471897</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3913811509151097</c:v>
+                  <c:v>6.8834207749467797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9502199488513901</c:v>
+                  <c:v>8.3852120061714697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9827219830961393</c:v>
+                  <c:v>10.9035230292544</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.0309475223854</c:v>
+                  <c:v>14.252499531812701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.635930496888498</c:v>
+                  <c:v>18.104680594209999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.3104530391143</c:v>
+                  <c:v>22.089518435025798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.8314423270932</c:v>
+                  <c:v>26.019335396207801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.1858721024673</c:v>
+                  <c:v>29.8680011807675</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.7613416337472</c:v>
+                  <c:v>33.689923520403099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.283981478500003</c:v>
+                  <c:v>37.6241382157137</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.147400705589597</c:v>
+                  <c:v>41.799555594536002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.273376523166199</c:v>
+                  <c:v>45.645134845482502</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.646207699781201</c:v>
+                  <c:v>49.283634028419897</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.937914045716703</c:v>
+                  <c:v>52.282469682371101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.139211073518503</c:v>
+                  <c:v>54.015770474766803</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.809870390357503</c:v>
+                  <c:v>54.9673613160288</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.135468750916701</c:v>
+                  <c:v>55.661138134206503</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.7033328748903</c:v>
+                  <c:v>54.2526607416169</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38.983774912815399</c:v>
+                  <c:v>52.313081862146298</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39.847812791921498</c:v>
+                  <c:v>50.597560576917601</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.149410271671101</c:v>
+                  <c:v>48.489452361038502</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.091646128322701</c:v>
+                  <c:v>47.616381649224202</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40.1543369951575</c:v>
+                  <c:v>46.050215967904997</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44.101368028953097</c:v>
@@ -5241,76 +5241,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>4.2337480570915603E-2</c:v>
+                  <c:v>4.0357727234163997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8154748773247602E-2</c:v>
+                  <c:v>5.1555409884242703E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1190801680087706E-2</c:v>
+                  <c:v>7.6475822549964406E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.110706360685528</c:v>
+                  <c:v>0.112528839572479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16513269144460599</c:v>
+                  <c:v>0.15749451640610801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22866319501605001</c:v>
+                  <c:v>0.20740264644814499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29522515455492898</c:v>
+                  <c:v>0.25854174251874001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35938677472434999</c:v>
+                  <c:v>0.30686940323305301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41451320597705299</c:v>
+                  <c:v>0.34958065998224302</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45967940706535498</c:v>
+                  <c:v>0.38438745434324501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49539433286961798</c:v>
+                  <c:v>0.41094957416619998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52103975884744402</c:v>
+                  <c:v>0.430492165613793</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.54025253593618505</c:v>
+                  <c:v>0.444942349422907</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55754550038235495</c:v>
+                  <c:v>0.45694158841938898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.570048629431822</c:v>
+                  <c:v>0.46754181966765701</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.58097598274631301</c:v>
+                  <c:v>0.47582051973758599</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.59021404360920704</c:v>
+                  <c:v>0.48495839574403199</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.60010409391833897</c:v>
+                  <c:v>0.49380802361544801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.60694406210385898</c:v>
+                  <c:v>0.49769564921527498</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.61419030831196098</c:v>
+                  <c:v>0.50153683831486495</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.61927691227710702</c:v>
+                  <c:v>0.50523148002423401</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.62347612065118296</c:v>
+                  <c:v>0.50980068323893202</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.62501242484278996</c:v>
+                  <c:v>0.51462352842222403</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.62876853816164802</c:v>
+                  <c:v>0.51927860571951701</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.70982889493475398</c:v>
@@ -5724,76 +5724,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>1.6084650999212899</c:v>
+                  <c:v>1.6556006228732401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.84811071010124</c:v>
+                  <c:v>1.81930116949397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9584387532685499</c:v>
+                  <c:v>2.61782720295531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8670763315324201</c:v>
+                  <c:v>3.83305101937415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4097779373118904</c:v>
+                  <c:v>5.3789603978702099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.354460274622101</c:v>
+                  <c:v>7.2131335252743796</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.3826941977423</c:v>
+                  <c:v>9.0918014763287296</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.271194409547402</c:v>
+                  <c:v>10.989656355201801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.694370012287902</c:v>
+                  <c:v>12.660631783822399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.588419018682298</c:v>
+                  <c:v>14.098212798247401</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.8697428872842</c:v>
+                  <c:v>15.110932380685201</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.570744237457401</c:v>
+                  <c:v>15.8402357300759</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.945842220252601</c:v>
+                  <c:v>16.303974754965399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.133067219341299</c:v>
+                  <c:v>16.628184510320601</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.225331039233701</c:v>
+                  <c:v>16.863000939138001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.471652708291401</c:v>
+                  <c:v>17.090037577326601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.705584306884202</c:v>
+                  <c:v>17.307598316982901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.094799183244501</c:v>
+                  <c:v>17.4751075694764</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.4519870814451</c:v>
+                  <c:v>17.651672288282398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.783252320365801</c:v>
+                  <c:v>17.701287354023901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.071589574629201</c:v>
+                  <c:v>17.872668724752799</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25.338191250140799</c:v>
+                  <c:v>18.1583538130253</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25.6342234607264</c:v>
+                  <c:v>18.427817749426101</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.9432296184712</c:v>
+                  <c:v>18.893005496576599</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>27.900888509341701</c:v>
@@ -6207,76 +6207,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>3.8866655560046102</c:v>
+                  <c:v>4.1303911462040697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4547258287396199</c:v>
+                  <c:v>4.3447188839488504</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5342619232186196</c:v>
+                  <c:v>5.7325032950555901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5618817374789007</c:v>
+                  <c:v>7.6706349229489801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.445100911770499</c:v>
+                  <c:v>10.010928931159199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.822653426522301</c:v>
+                  <c:v>12.5390590065909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.317270362741201</c:v>
+                  <c:v>15.0473685562832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.475699892276399</c:v>
+                  <c:v>17.4123488500965</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.0685857872021</c:v>
+                  <c:v>19.525827063494301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.039559202530803</c:v>
+                  <c:v>21.172693908385401</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.213434759278201</c:v>
+                  <c:v>22.480980447026798</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.501208587577501</c:v>
+                  <c:v>23.414608848199201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.013020819214397</c:v>
+                  <c:v>23.992660676646899</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.0729559405491</c:v>
+                  <c:v>24.226046215102802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.9684138373972</c:v>
+                  <c:v>24.2791929831175</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.730321488798303</c:v>
+                  <c:v>24.233936908179199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.7548123650446</c:v>
+                  <c:v>24.126497591843201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.047015041899201</c:v>
+                  <c:v>24.035640793165399</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.514199842969397</c:v>
+                  <c:v>23.987947079077099</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38.025581448867001</c:v>
+                  <c:v>23.974621685511099</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.788646233006503</c:v>
+                  <c:v>23.9733290650905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.628382549189503</c:v>
+                  <c:v>24.078792302301</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.882151061510697</c:v>
+                  <c:v>24.445613554331</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41.700780159030899</c:v>
+                  <c:v>24.979539492522498</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>37.4552988224644</c:v>
@@ -7049,76 +7049,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.99299872955509005</c:v>
+                  <c:v>0.99463150597924599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98881673419562999</c:v>
+                  <c:v>0.99102205354372097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97610677915686905</c:v>
+                  <c:v>0.98089795174623395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94992680451268796</c:v>
+                  <c:v>0.95974495873391596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90221507205321505</c:v>
+                  <c:v>0.92299860834832503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82679364918425002</c:v>
+                  <c:v>0.86481356956029098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.722861275947283</c:v>
+                  <c:v>0.78290395268833801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59654825235920195</c:v>
+                  <c:v>0.68116567575847298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46535609047612297</c:v>
+                  <c:v>0.56905866928910698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33981595570182099</c:v>
+                  <c:v>0.45500805696747998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24553678730968401</c:v>
+                  <c:v>0.35490985131936797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16902584243987001</c:v>
+                  <c:v>0.26974452881646499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.110983604364461</c:v>
+                  <c:v>0.20501838324497901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6511403759548898E-2</c:v>
+                  <c:v>0.15724106912751601</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-9.3565638320280899E-4</c:v>
+                  <c:v>9.6270599967050299E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.8713318643525497E-2</c:v>
+                  <c:v>4.7752898017397502E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.112077070232452</c:v>
+                  <c:v>1.25849930958056E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.16727512697389901</c:v>
+                  <c:v>-1.4626961011690601E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.20336574575789301</c:v>
+                  <c:v>-3.3412763745943597E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.24045279032823899</c:v>
+                  <c:v>-4.11805948741783E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.265333365303831</c:v>
+                  <c:v>-5.0958828258143601E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.27535138319454999</c:v>
+                  <c:v>-5.0185239214186099E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.288067295978858</c:v>
+                  <c:v>-6.0984715844077199E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.29255019887219702</c:v>
+                  <c:v>-6.3603114560674801E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-0.54635161563702395</c:v>
@@ -7532,76 +7532,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.99452848276681005</c:v>
+                  <c:v>0.99341295395068896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.991261533606835</c:v>
+                  <c:v>0.99133178855446502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97950236280139802</c:v>
+                  <c:v>0.98323603225614697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95267879990036297</c:v>
+                  <c:v>0.96546801706191099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90391940345900901</c:v>
+                  <c:v>0.93382571219319399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82759621893914204</c:v>
+                  <c:v>0.88421466733238696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72400056211692398</c:v>
+                  <c:v>0.81488140092524397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60147688459401205</c:v>
+                  <c:v>0.72714618236149098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47764528157466202</c:v>
+                  <c:v>0.630398591661814</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36431905352894201</c:v>
+                  <c:v>0.53473221200004994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27868255446388601</c:v>
+                  <c:v>0.44751023258199102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20738257922130399</c:v>
+                  <c:v>0.37483880072185999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.15184003404806001</c:v>
+                  <c:v>0.31725436407292501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.1685963005723695E-2</c:v>
+                  <c:v>0.26942346222667202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3465750170273298E-2</c:v>
+                  <c:v>0.22239839004388401</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.5460000144745299E-2</c:v>
+                  <c:v>0.17525850891911299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-8.8394186837339198E-2</c:v>
+                  <c:v>0.13490522492868601</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.14542293050739699</c:v>
+                  <c:v>9.23739485252007E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.19732099998357699</c:v>
+                  <c:v>5.7407754484844101E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.244592252861807</c:v>
+                  <c:v>3.5754390340065299E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.27992686478732698</c:v>
+                  <c:v>1.86450223184664E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.305488401420274</c:v>
+                  <c:v>-1.47898734368812E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.31782446007184201</c:v>
+                  <c:v>-3.1517016579161602E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.33180854721185299</c:v>
+                  <c:v>-8.1838108813522006E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-0.46218561546897802</c:v>
@@ -8015,76 +8015,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.97119503469384705</c:v>
+                  <c:v>0.95351709710473598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96837002666180805</c:v>
+                  <c:v>0.94697993549826898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94743580315573395</c:v>
+                  <c:v>0.921323123299295</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89156345910017698</c:v>
+                  <c:v>0.86697069545587602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78576982350642999</c:v>
+                  <c:v>0.77267210630594296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62191597311969704</c:v>
+                  <c:v>0.63300884615831299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40784444811825599</c:v>
+                  <c:v>0.453139914576347</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15436233137018199</c:v>
+                  <c:v>0.240046599528667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.4359635213506003E-2</c:v>
+                  <c:v>-3.5045635245676198E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.25083639100502603</c:v>
+                  <c:v>-0.27978404994748302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.36975630131293702</c:v>
+                  <c:v>-0.59988501536563699</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.44068355824841299</c:v>
+                  <c:v>-0.97882381057582701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.45305107373739401</c:v>
+                  <c:v>-1.36378505230652</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.48480171512276099</c:v>
+                  <c:v>-1.75956962508099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.50994577148263698</c:v>
+                  <c:v>-2.1093978591317999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.527825342184288</c:v>
+                  <c:v>-2.32281954510555</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.58515649357121502</c:v>
+                  <c:v>-2.4451769194186501</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.614740419459472</c:v>
+                  <c:v>-2.5377671312028101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.66608674831741799</c:v>
+                  <c:v>-2.3667474374710702</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.69392954214365399</c:v>
+                  <c:v>-2.1365526139189401</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.77405645396935996</c:v>
+                  <c:v>-1.9405990550107199</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.80528367302112602</c:v>
+                  <c:v>-1.7066260797035999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.80394453297163704</c:v>
+                  <c:v>-1.61541156074662</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.81280701600365701</c:v>
+                  <c:v>-1.45054352859624</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-2.3551187160910598</c:v>
@@ -8498,76 +8498,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.99445879512246205</c:v>
+                  <c:v>0.99487354207989698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99283103697306896</c:v>
+                  <c:v>0.99163380905377096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98433114503834296</c:v>
+                  <c:v>0.98159093419432397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96210912660254799</c:v>
+                  <c:v>0.960142331481873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91569166035398997</c:v>
+                  <c:v>0.92192017538888005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83831196076202796</c:v>
+                  <c:v>0.86456747061952999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.73035507970081104</c:v>
+                  <c:v>0.78945669774562699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60009830267562703</c:v>
+                  <c:v>0.70318516441784096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46744333487641798</c:v>
+                  <c:v>0.61446513981150896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34430025733613501</c:v>
+                  <c:v>0.53340354651383204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.237630450036033</c:v>
+                  <c:v>0.466171087032484</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15592740486352499</c:v>
+                  <c:v>0.41369424149998801</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.1964700627542098E-2</c:v>
+                  <c:v>0.373239263439963</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2472037154282901E-2</c:v>
+                  <c:v>0.33860963826066498</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.1770684468122201E-2</c:v>
+                  <c:v>0.307237565430171</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.1302813332566102E-2</c:v>
+                  <c:v>0.28215919390452798</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-8.5457438184781603E-2</c:v>
+                  <c:v>0.25395487713901299</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.12275192491987399</c:v>
+                  <c:v>0.226036092225536</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.14929380090856401</c:v>
+                  <c:v>0.213278297140439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.17786830948179599</c:v>
+                  <c:v>0.20049753418394001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.198485545154749</c:v>
+                  <c:v>0.18806246766269</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.21573867980154501</c:v>
+                  <c:v>0.172735175341063</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.22248520379779099</c:v>
+                  <c:v>0.156528478980618</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.237738718193719</c:v>
+                  <c:v>0.14084771980970101</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-0.49301728180681098</c:v>
@@ -8981,76 +8981,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.99589014891983696</c:v>
+                  <c:v>0.99551223015096202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99457463443692795</c:v>
+                  <c:v>0.99458137065610297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98609832496577499</c:v>
+                  <c:v>0.98878181387470698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96237756980350497</c:v>
+                  <c:v>0.97595113504697795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91280241593140599</c:v>
+                  <c:v>0.95264281228788195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82971578842299498</c:v>
+                  <c:v>0.91483488036934302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71548847933975401</c:v>
+                  <c:v>0.86466862685415802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57925080494412895</c:v>
+                  <c:v>0.80220324372413399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44429723853673397</c:v>
+                  <c:v>0.73735315049849304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32557205323119798</c:v>
+                  <c:v>0.67413697220591895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23855169327239401</c:v>
+                  <c:v>0.62542219067057203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.188523478011726</c:v>
+                  <c:v>0.58816897683051605</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16096282025817399</c:v>
+                  <c:v>0.56349466644010404</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14691818990421701</c:v>
+                  <c:v>0.54577974081867797</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13985551217522399</c:v>
+                  <c:v>0.53270441849342598</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.121300362669159</c:v>
+                  <c:v>0.51990258903888198</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10350403216103</c:v>
+                  <c:v>0.50748565347028896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.3644913583234703E-2</c:v>
+                  <c:v>0.49780872047778901</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5820711882267301E-2</c:v>
+                  <c:v>0.487532160162853</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.96744660838938E-2</c:v>
+                  <c:v>0.48459464316283202</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.3335451403158E-3</c:v>
+                  <c:v>0.47454030156823701</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.47908306148505E-2</c:v>
+                  <c:v>0.457608596300835</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-4.8831953830004098E-2</c:v>
+                  <c:v>0.44141522845796499</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7.4194591871543203E-2</c:v>
+                  <c:v>0.41289756448343401</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-5.5834400541231399E-2</c:v>
@@ -9464,76 +9464,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.99400419806507001</c:v>
+                  <c:v>0.99297231256247098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99212600928275896</c:v>
+                  <c:v>0.99222664253715898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98306162387746499</c:v>
+                  <c:v>0.98647024991121701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96373092850785302</c:v>
+                  <c:v>0.97577713344920702</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92829135721312395</c:v>
+                  <c:v>0.95874276073703801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87399487426170996</c:v>
+                  <c:v>0.93527377482880603</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80242835723269301</c:v>
+                  <c:v>0.90678818097760305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72194312908244196</c:v>
+                  <c:v>0.87518682323192598</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.64135992921825202</c:v>
+                  <c:v>0.84305182327303896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56699456493676204</c:v>
+                  <c:v>0.81546529877284701</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.50815157711791303</c:v>
+                  <c:v>0.79196196078921799</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47153494559917503</c:v>
+                  <c:v>0.77433084975543998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.45662797032050201</c:v>
+                  <c:v>0.76305735036213396</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45488076079234502</c:v>
+                  <c:v>0.75842925907790204</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.45795613571194799</c:v>
+                  <c:v>0.75736782553584703</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.46490750008755799</c:v>
+                  <c:v>0.75826561986032304</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.46417031032615202</c:v>
+                  <c:v>0.76039299722395504</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.45558082021782997</c:v>
+                  <c:v>0.76217925155579302</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.44172234394520998</c:v>
+                  <c:v>0.76310641758951103</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.42636189643499101</c:v>
+                  <c:v>0.76335647507724902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.403084957337149</c:v>
+                  <c:v>0.76337397867911605</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.37695203693131701</c:v>
+                  <c:v>0.76128477280137397</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.33690672837631602</c:v>
+                  <c:v>0.75395674944370605</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.31008723883656197</c:v>
+                  <c:v>0.74309209572177304</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.52801883704580099</c:v>
@@ -10312,76 +10312,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>6.4107428841353994E-2</c:v>
+                  <c:v>5.9893108321238599E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3514751941253301E-2</c:v>
+                  <c:v>7.0306376658780798E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8324152441090204E-2</c:v>
+                  <c:v>9.1882653325840405E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.134499356815514</c:v>
+                  <c:v>0.12110709543426799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17930076717974699</c:v>
+                  <c:v>0.155520154788338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22930113253666501</c:v>
+                  <c:v>0.193167939933927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27959438718514501</c:v>
+                  <c:v>0.23145014179137699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32848027860113199</c:v>
+                  <c:v>0.26887722496963501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37249314777224901</c:v>
+                  <c:v>0.30360713967922298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41093267295678398</c:v>
+                  <c:v>0.33436706125009302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44022812551578999</c:v>
+                  <c:v>0.35961215066013802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46416409782701901</c:v>
+                  <c:v>0.38081706809067001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48323482125849798</c:v>
+                  <c:v>0.39662056958208097</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.499731091293035</c:v>
+                  <c:v>0.40898686232640502</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.51443988341397096</c:v>
+                  <c:v>0.41867959568481999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.52766066384955601</c:v>
+                  <c:v>0.42610244793153701</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53978103193807403</c:v>
+                  <c:v>0.43204588162831598</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.55197798440110002</c:v>
+                  <c:v>0.43643977241413701</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.560905539585284</c:v>
+                  <c:v>0.44069073122454</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.56896932935203104</c:v>
+                  <c:v>0.444694695889575</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.57459095827418005</c:v>
+                  <c:v>0.44860806695028999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.57824614641736205</c:v>
+                  <c:v>0.45220946617039998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.58310030492113396</c:v>
+                  <c:v>0.45752373092162602</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.58641594569386402</c:v>
+                  <c:v>0.46330413339816801</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.65231648815445598</c:v>
@@ -10795,76 +10795,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>3.6842861011362402E-2</c:v>
+                  <c:v>3.6956658853056101E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.38216394150647E-2</c:v>
+                  <c:v>4.0778444713058401E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2567201186210702E-2</c:v>
+                  <c:v>5.4850889684143603E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1532286671988095E-2</c:v>
+                  <c:v>7.6587076319765496E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.125404863286709</c:v>
+                  <c:v>0.103273138874471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16314972983847301</c:v>
+                  <c:v>0.13323334041724799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20163498952605599</c:v>
+                  <c:v>0.164988371302695</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.237905432663581</c:v>
+                  <c:v>0.19613972525423901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27019656081005899</c:v>
+                  <c:v>0.22482036142772699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29810305909993801</c:v>
+                  <c:v>0.25005491690621801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32006438071931598</c:v>
+                  <c:v>0.27093591341185302</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33877642413033698</c:v>
+                  <c:v>0.287281860897737</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35381326897188398</c:v>
+                  <c:v>0.29973918524727999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36760612138475901</c:v>
+                  <c:v>0.30860148463236398</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37930149393620699</c:v>
+                  <c:v>0.31545579899784898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.38997506937792997</c:v>
+                  <c:v>0.32127351217278499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40071036694350298</c:v>
+                  <c:v>0.32541695609236299</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40967076767001298</c:v>
+                  <c:v>0.32959078832572303</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.41769979885498298</c:v>
+                  <c:v>0.33359058545634901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.42475666019906499</c:v>
+                  <c:v>0.33810145949001902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.42989985105019202</c:v>
+                  <c:v>0.34311312080987599</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.434078116689741</c:v>
+                  <c:v>0.34905156067457399</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.43739099806159498</c:v>
+                  <c:v>0.35443319942391999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.44170945505787002</c:v>
+                  <c:v>0.36136716117029399</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.48200209783845699</c:v>
@@ -11278,76 +11278,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.21664297368152099</c:v>
+                  <c:v>0.25438818817347603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22142570687100899</c:v>
+                  <c:v>0.25811079504208501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25622762640809499</c:v>
+                  <c:v>0.277444147625793</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30691716694156101</c:v>
+                  <c:v>0.30751837658198899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36394797119854799</c:v>
+                  <c:v>0.34719888700121299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42491205094526002</c:v>
+                  <c:v>0.39105276590093402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48479336865761502</c:v>
+                  <c:v>0.43534941505857999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54327261939230698</c:v>
+                  <c:v>0.477741241647199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58634536165633699</c:v>
+                  <c:v>0.51654824393024301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.621505635349484</c:v>
+                  <c:v>0.54959337216832804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64633063531103097</c:v>
+                  <c:v>0.57738701472543297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66621646895700004</c:v>
+                  <c:v>0.59885104971379499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67618307730633898</c:v>
+                  <c:v>0.61348755854532799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.68807034617020102</c:v>
+                  <c:v>0.62311993717851299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.69615934836723703</c:v>
+                  <c:v>0.63203519714158896</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.69994145659655105</c:v>
+                  <c:v>0.63754336777446596</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.70956644816449099</c:v>
+                  <c:v>0.64155777716194795</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.71455861759383699</c:v>
+                  <c:v>0.64616353700128604</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.72239951945105196</c:v>
+                  <c:v>0.64963610524448201</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.72733063223160999</c:v>
+                  <c:v>0.657231337322846</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.73839740542682197</c:v>
+                  <c:v>0.66166631594948999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.74294245801618097</c:v>
+                  <c:v>0.66539303454575205</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.74354345908425001</c:v>
+                  <c:v>0.66769594942126897</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.74282094683321398</c:v>
+                  <c:v>0.66922081886975104</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.81262906908974897</c:v>
@@ -11761,76 +11761,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>3.7317184751994401E-2</c:v>
+                  <c:v>3.6833042620077701E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0277946407864099E-2</c:v>
+                  <c:v>4.5258459940239297E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7628922021179002E-2</c:v>
+                  <c:v>6.0868552651673499E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3014153092327403E-2</c:v>
+                  <c:v>8.1947585828626004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.117668951129679</c:v>
+                  <c:v>0.10759837777367499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15613324816711599</c:v>
+                  <c:v>0.13555074235606199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19643173854123799</c:v>
+                  <c:v>0.163859156775603</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23465493051789199</c:v>
+                  <c:v>0.19021408936369699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26817113127633102</c:v>
+                  <c:v>0.213919052090871</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.296233382051862</c:v>
+                  <c:v>0.23359905310180801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31872160632270302</c:v>
+                  <c:v>0.249071426252581</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33492804966089301</c:v>
+                  <c:v>0.26046434617728598</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34666127577977501</c:v>
+                  <c:v>0.26823339814547997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35678997358206599</c:v>
+                  <c:v>0.27454406769584699</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36387455798853402</c:v>
+                  <c:v>0.27927884992760099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.370523009840664</c:v>
+                  <c:v>0.28297931021071498</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.37599190799441401</c:v>
+                  <c:v>0.28645520796824703</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.38170364242236698</c:v>
+                  <c:v>0.290460418752366</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.386271066914184</c:v>
+                  <c:v>0.29321498576621002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.39177783563115798</c:v>
+                  <c:v>0.29609952089964298</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.39560996931883402</c:v>
+                  <c:v>0.29870243336067298</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.39879037283132501</c:v>
+                  <c:v>0.30149433958817401</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.40044467465980699</c:v>
+                  <c:v>0.30432768893109202</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.40308569275546502</c:v>
+                  <c:v>0.30772914901617399</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.45991078919767803</c:v>
@@ -12244,76 +12244,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>3.2017199629616598E-2</c:v>
+                  <c:v>3.5793624609250202E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8470887789332303E-2</c:v>
+                  <c:v>3.7579272979962802E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.02171609268514E-2</c:v>
+                  <c:v>5.0651506798753097E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2696328107347098E-2</c:v>
+                  <c:v>7.16434573556433E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13301145336276601</c:v>
+                  <c:v>9.7415557413686502E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.177161776290788</c:v>
+                  <c:v>0.12633485034608399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22043156062125799</c:v>
+                  <c:v>0.153985700455849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26100397925837798</c:v>
+                  <c:v>0.18030930149702001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29490998643314498</c:v>
+                  <c:v>0.20274605472673801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.321526849542557</c:v>
+                  <c:v>0.22097331467890699</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.340345906330281</c:v>
+                  <c:v>0.23382470824710599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35190609205613499</c:v>
+                  <c:v>0.243324565437434</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35861472455912002</c:v>
+                  <c:v>0.25004433516360602</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36192102120171599</c:v>
+                  <c:v>0.25551943407537497</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36371155069331002</c:v>
+                  <c:v>0.25993643875943601</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36649003308739903</c:v>
+                  <c:v>0.262583753286322</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.37073578658590201</c:v>
+                  <c:v>0.264341595280633</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.37622653372237702</c:v>
+                  <c:v>0.26555657948086098</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.38270648984945299</c:v>
+                  <c:v>0.26678586322916398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.38902073136988402</c:v>
+                  <c:v>0.26751472112003899</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.394193247423684</c:v>
+                  <c:v>0.26986795493239402</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.39997365221342801</c:v>
+                  <c:v>0.27429738483037502</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.40584696026328299</c:v>
+                  <c:v>0.27805452366934003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.409402815589199</c:v>
+                  <c:v>0.283129470307318</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.44208808739067101</c:v>
@@ -12727,76 +12727,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.16834065963369901</c:v>
+                  <c:v>0.167173060420649</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17434667139564999</c:v>
+                  <c:v>0.172932373708024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20424422573694401</c:v>
+                  <c:v>0.19511078052745101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24680094995961299</c:v>
+                  <c:v>0.22358157686156999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29731808110950197</c:v>
+                  <c:v>0.25545034480551998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35197878736440402</c:v>
+                  <c:v>0.28833004823073399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40586945769770399</c:v>
+                  <c:v>0.320104795174941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45607630580945901</c:v>
+                  <c:v>0.35029621825190599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49901334760112898</c:v>
+                  <c:v>0.37817941768077701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53258615487510297</c:v>
+                  <c:v>0.40038119837550801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55764173610357004</c:v>
+                  <c:v>0.41685508445539698</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.57619405572846505</c:v>
+                  <c:v>0.428317406861983</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.58817272606459603</c:v>
+                  <c:v>0.43508383567657</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.59482507316385203</c:v>
+                  <c:v>0.43982287266164199</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59836779665511297</c:v>
+                  <c:v>0.44247457451248701</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.60173047684789205</c:v>
+                  <c:v>0.44428373881462802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.60598590221789095</c:v>
+                  <c:v>0.44601792808979901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.60971113326305704</c:v>
+                  <c:v>0.44919655854375801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.61414448771423202</c:v>
+                  <c:v>0.45323618556849798</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.61715098508458199</c:v>
+                  <c:v>0.45728427325323801</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.61889403104268403</c:v>
+                  <c:v>0.459030904899981</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.62013133536467002</c:v>
+                  <c:v>0.45977291865537301</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.62235679097514895</c:v>
+                  <c:v>0.46028868305718301</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.62435873392992602</c:v>
+                  <c:v>0.46030227613773</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.60541946754327003</c:v>
@@ -26514,76 +26514,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>2.68114031711595</c:v>
+                  <c:v>2.4473886841580299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2982780256241302</c:v>
+                  <c:v>3.0862326688405601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7777636968920802</c:v>
+                  <c:v>4.3557468080847004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9322619249154398</c:v>
+                  <c:v>6.0902254666286204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6649519666964299</c:v>
+                  <c:v>8.20550420059309</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.8476483043963</c:v>
+                  <c:v>10.626290026968499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.1847047552696</c:v>
+                  <c:v>13.187267547686901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.507146617530299</c:v>
+                  <c:v>15.7753222280563</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.549290276861299</c:v>
+                  <c:v>18.2253277875839</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.275635151333699</c:v>
+                  <c:v>20.4693871175913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.242817329047401</c:v>
+                  <c:v>22.313934701606001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.870650663886899</c:v>
+                  <c:v>23.865821280369101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.105582664875701</c:v>
+                  <c:v>24.991423088997401</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.178538509852601</c:v>
+                  <c:v>25.806709320731098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.219894277326397</c:v>
+                  <c:v>26.5656117813705</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.235699934210103</c:v>
+                  <c:v>27.122316108318799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.139023550003898</c:v>
+                  <c:v>27.6246396674767</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.091861358872499</c:v>
+                  <c:v>28.0974159582528</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.599579915578502</c:v>
+                  <c:v>28.6118697271176</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.223314231084203</c:v>
+                  <c:v>29.027057659884299</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36.575349686324898</c:v>
+                  <c:v>29.420343191141502</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.688722305452401</c:v>
+                  <c:v>29.702442499681101</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36.942026394883797</c:v>
+                  <c:v>30.181686557447598</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37.033271372337701</c:v>
+                  <c:v>30.565394654893598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27133,6 +27133,7 @@
         <c:axId val="57315295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -32992,12 +32993,12 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -33005,7 +33006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -33013,7 +33014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -33021,7 +33022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -33029,7 +33030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -33037,7 +33038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -33056,12 +33057,12 @@
   <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -33138,1855 +33139,1855 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.68114031711595</v>
+        <v>2.4473886841580299</v>
       </c>
       <c r="C2">
-        <v>3.9356442219095298</v>
+        <v>3.42225148067139</v>
       </c>
       <c r="D2">
-        <v>0.99299872955509005</v>
+        <v>0.99463150597924599</v>
       </c>
       <c r="E2">
-        <v>6.4107428841353994E-2</v>
+        <v>5.9893108321238599E-2</v>
       </c>
       <c r="F2">
-        <v>3.6968178398971401</v>
+        <v>3.7398216871211698</v>
       </c>
       <c r="G2">
-        <v>5.30215690905613</v>
+        <v>5.7798395631505102</v>
       </c>
       <c r="H2">
-        <v>0.99452848276681005</v>
+        <v>0.99341295395068896</v>
       </c>
       <c r="I2">
-        <v>3.6842861011362402E-2</v>
+        <v>3.6956658853056101E-2</v>
       </c>
       <c r="J2">
-        <v>3.4650725226060399</v>
+        <v>4.2883565232886696</v>
       </c>
       <c r="K2">
-        <v>5.1450434161905498</v>
+        <v>6.4451163577471897</v>
       </c>
       <c r="L2">
-        <v>0.97119503469384705</v>
+        <v>0.95351709710473598</v>
       </c>
       <c r="M2">
-        <v>0.21664297368152099</v>
+        <v>0.25438818817347603</v>
       </c>
       <c r="N2">
-        <v>3.0301140779064699E-2</v>
+        <v>2.9831914573639502E-2</v>
       </c>
       <c r="O2">
-        <v>4.2337480570915603E-2</v>
+        <v>4.0357727234163997E-2</v>
       </c>
       <c r="P2">
-        <v>0.99445879512246205</v>
+        <v>0.99487354207989698</v>
       </c>
       <c r="Q2">
-        <v>3.7317184751994401E-2</v>
+        <v>3.6833042620077701E-2</v>
       </c>
       <c r="R2">
-        <v>1.1201152055118899</v>
+        <v>1.1792738242795999</v>
       </c>
       <c r="S2">
-        <v>1.6084650999212899</v>
+        <v>1.6556006228732401</v>
       </c>
       <c r="T2">
-        <v>0.99589014891983696</v>
+        <v>0.99551223015096202</v>
       </c>
       <c r="U2">
-        <v>3.2017199629616598E-2</v>
+        <v>3.5793624609250202E-2</v>
       </c>
       <c r="V2">
-        <v>2.8797723700376001</v>
+        <v>2.9929663465601899</v>
       </c>
       <c r="W2">
-        <v>3.8866655560046102</v>
+        <v>4.1303911462040697</v>
       </c>
       <c r="X2">
-        <v>0.99400419806507001</v>
+        <v>0.99297231256247098</v>
       </c>
       <c r="Y2">
-        <v>0.16834065963369901</v>
+        <v>0.167173060420649</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.2982780256241302</v>
+        <v>3.0862326688405601</v>
       </c>
       <c r="C3">
-        <v>4.97403999309231</v>
+        <v>4.4256160695477504</v>
       </c>
       <c r="D3">
-        <v>0.98881673419562999</v>
+        <v>0.99102205354372097</v>
       </c>
       <c r="E3">
-        <v>7.3514751941253301E-2</v>
+        <v>7.0306376658780798E-2</v>
       </c>
       <c r="F3">
-        <v>4.6238671516034699</v>
+        <v>4.2768940794388604</v>
       </c>
       <c r="G3">
-        <v>6.7003493838033403</v>
+        <v>6.6299780459504101</v>
       </c>
       <c r="H3">
-        <v>0.991261533606835</v>
+        <v>0.99133178855446502</v>
       </c>
       <c r="I3">
-        <v>4.38216394150647E-2</v>
+        <v>4.0778444713058401E-2</v>
       </c>
       <c r="J3">
-        <v>3.6778512207289902</v>
+        <v>4.51126272279914</v>
       </c>
       <c r="K3">
-        <v>5.3913811509151097</v>
+        <v>6.8834207749467797</v>
       </c>
       <c r="L3">
-        <v>0.96837002666180805</v>
+        <v>0.94697993549826898</v>
       </c>
       <c r="M3">
-        <v>0.22142570687100899</v>
+        <v>0.25811079504208501</v>
       </c>
       <c r="N3">
-        <v>3.3936348992610402E-2</v>
+        <v>3.8689782345734697E-2</v>
       </c>
       <c r="O3">
-        <v>4.8154748773247602E-2</v>
+        <v>5.1555409884242703E-2</v>
       </c>
       <c r="P3">
-        <v>0.99283103697306896</v>
+        <v>0.99163380905377096</v>
       </c>
       <c r="Q3">
-        <v>4.0277946407864099E-2</v>
+        <v>4.5258459940239297E-2</v>
       </c>
       <c r="R3">
-        <v>1.34567093848511</v>
+        <v>1.31008719032363</v>
       </c>
       <c r="S3">
-        <v>1.84811071010124</v>
+        <v>1.81930116949397</v>
       </c>
       <c r="T3">
-        <v>0.99457463443692795</v>
+        <v>0.99458137065610297</v>
       </c>
       <c r="U3">
-        <v>3.8470887789332303E-2</v>
+        <v>3.7579272979962802E-2</v>
       </c>
       <c r="V3">
-        <v>3.24378907380911</v>
+        <v>3.2229142118192802</v>
       </c>
       <c r="W3">
-        <v>4.4547258287396199</v>
+        <v>4.3447188839488504</v>
       </c>
       <c r="X3">
-        <v>0.99212600928275896</v>
+        <v>0.99222664253715898</v>
       </c>
       <c r="Y3">
-        <v>0.17434667139564999</v>
+        <v>0.172932373708024</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.7777636968920802</v>
+        <v>4.3557468080847004</v>
       </c>
       <c r="C4">
-        <v>7.2704598933120996</v>
+        <v>6.4554313538758903</v>
       </c>
       <c r="D4">
-        <v>0.97610677915686905</v>
+        <v>0.98089795174623395</v>
       </c>
       <c r="E4">
-        <v>9.8324152441090204E-2</v>
+        <v>9.1882653325840405E-2</v>
       </c>
       <c r="F4">
-        <v>7.0383257853044698</v>
+        <v>6.07690631688883</v>
       </c>
       <c r="G4">
-        <v>10.2614223856504</v>
+        <v>9.2194358667780705</v>
       </c>
       <c r="H4">
-        <v>0.97950236280139802</v>
+        <v>0.98323603225614697</v>
       </c>
       <c r="I4">
-        <v>6.2567201186210702E-2</v>
+        <v>5.4850889684143603E-2</v>
       </c>
       <c r="J4">
-        <v>4.7445397106104297</v>
+        <v>5.2978031694851797</v>
       </c>
       <c r="K4">
-        <v>6.9502199488513901</v>
+        <v>8.3852120061714697</v>
       </c>
       <c r="L4">
-        <v>0.94743580315573395</v>
+        <v>0.921323123299295</v>
       </c>
       <c r="M4">
-        <v>0.25622762640809499</v>
+        <v>0.277444147625793</v>
       </c>
       <c r="N4">
-        <v>5.1874925900703701E-2</v>
+        <v>5.5817196782683702E-2</v>
       </c>
       <c r="O4">
-        <v>7.1190801680087706E-2</v>
+        <v>7.6475822549964406E-2</v>
       </c>
       <c r="P4">
-        <v>0.98433114503834296</v>
+        <v>0.98159093419432397</v>
       </c>
       <c r="Q4">
-        <v>5.7628922021179002E-2</v>
+        <v>6.0868552651673499E-2</v>
       </c>
       <c r="R4">
-        <v>2.2294768606630102</v>
+        <v>1.91735488032858</v>
       </c>
       <c r="S4">
-        <v>2.9584387532685499</v>
+        <v>2.61782720295531</v>
       </c>
       <c r="T4">
-        <v>0.98609832496577499</v>
+        <v>0.98878181387470698</v>
       </c>
       <c r="U4">
-        <v>6.02171609268514E-2</v>
+        <v>5.0651506798753097E-2</v>
       </c>
       <c r="V4">
-        <v>4.6725713327069496</v>
+        <v>4.2250462930367298</v>
       </c>
       <c r="W4">
-        <v>6.5342619232186196</v>
+        <v>5.7325032950555901</v>
       </c>
       <c r="X4">
-        <v>0.98306162387746499</v>
+        <v>0.98647024991121701</v>
       </c>
       <c r="Y4">
-        <v>0.20424422573694401</v>
+        <v>0.19511078052745101</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.9322619249154398</v>
+        <v>6.0902254666286204</v>
       </c>
       <c r="C5">
-        <v>10.525082549634099</v>
+        <v>9.3710891413973894</v>
       </c>
       <c r="D5">
-        <v>0.94992680451268796</v>
+        <v>0.95974495873391596</v>
       </c>
       <c r="E5">
-        <v>0.134499356815514</v>
+        <v>0.12110709543426799</v>
       </c>
       <c r="F5">
-        <v>10.7414972461048</v>
+        <v>8.8414719831093809</v>
       </c>
       <c r="G5">
-        <v>15.5899880627684</v>
+        <v>13.230591251143901</v>
       </c>
       <c r="H5">
-        <v>0.95267879990036297</v>
+        <v>0.96546801706191099</v>
       </c>
       <c r="I5">
-        <v>9.1532286671988095E-2</v>
+        <v>7.6587076319765496E-2</v>
       </c>
       <c r="J5">
-        <v>6.4473652712212797</v>
+        <v>6.49110206310612</v>
       </c>
       <c r="K5">
-        <v>9.9827219830961393</v>
+        <v>10.9035230292544</v>
       </c>
       <c r="L5">
-        <v>0.89156345910017698</v>
+        <v>0.86697069545587602</v>
       </c>
       <c r="M5">
-        <v>0.30691716694156101</v>
+        <v>0.30751837658198899</v>
       </c>
       <c r="N5">
-        <v>7.9736150161755004E-2</v>
+        <v>7.9370043998666803E-2</v>
       </c>
       <c r="O5">
-        <v>0.110706360685528</v>
+        <v>0.112528839572479</v>
       </c>
       <c r="P5">
-        <v>0.96210912660254799</v>
+        <v>0.960142331481873</v>
       </c>
       <c r="Q5">
-        <v>8.3014153092327403E-2</v>
+        <v>8.1947585828626004E-2</v>
       </c>
       <c r="R5">
-        <v>3.6409940893527399</v>
+        <v>2.85145400129444</v>
       </c>
       <c r="S5">
-        <v>4.8670763315324201</v>
+        <v>3.83305101937415</v>
       </c>
       <c r="T5">
-        <v>0.96237756980350497</v>
+        <v>0.97595113504697795</v>
       </c>
       <c r="U5">
-        <v>9.2696328107347098E-2</v>
+        <v>7.16434573556433E-2</v>
       </c>
       <c r="V5">
-        <v>6.7331973487902301</v>
+        <v>5.6040854776515499</v>
       </c>
       <c r="W5">
-        <v>9.5618817374789007</v>
+        <v>7.6706349229489801</v>
       </c>
       <c r="X5">
-        <v>0.96373092850785302</v>
+        <v>0.97577713344920702</v>
       </c>
       <c r="Y5">
-        <v>0.24680094995961299</v>
+        <v>0.22358157686156999</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>9.6649519666964299</v>
+        <v>8.20550420059309</v>
       </c>
       <c r="C6">
-        <v>14.707552182460599</v>
+        <v>12.9599650213781</v>
       </c>
       <c r="D6">
-        <v>0.90221507205321505</v>
+        <v>0.92299860834832503</v>
       </c>
       <c r="E6">
-        <v>0.17930076717974699</v>
+        <v>0.155520154788338</v>
       </c>
       <c r="F6">
-        <v>15.2113784271853</v>
+        <v>12.231745285400599</v>
       </c>
       <c r="G6">
-        <v>22.211157308814499</v>
+        <v>18.312123630704399</v>
       </c>
       <c r="H6">
-        <v>0.90391940345900901</v>
+        <v>0.93382571219319399</v>
       </c>
       <c r="I6">
-        <v>0.125404863286709</v>
+        <v>0.103273138874471</v>
       </c>
       <c r="J6">
-        <v>8.5501339454572793</v>
+        <v>8.0925109933862291</v>
       </c>
       <c r="K6">
-        <v>14.0309475223854</v>
+        <v>14.252499531812701</v>
       </c>
       <c r="L6">
-        <v>0.78576982350642999</v>
+        <v>0.77267210630594296</v>
       </c>
       <c r="M6">
-        <v>0.36394797119854799</v>
+        <v>0.34719888700121299</v>
       </c>
       <c r="N6">
-        <v>0.117944542141693</v>
+        <v>0.108178263142005</v>
       </c>
       <c r="O6">
-        <v>0.16513269144460599</v>
+        <v>0.15749451640610801</v>
       </c>
       <c r="P6">
-        <v>0.91569166035398997</v>
+        <v>0.92192017538888005</v>
       </c>
       <c r="Q6">
-        <v>0.117668951129679</v>
+        <v>0.10759837777367499</v>
       </c>
       <c r="R6">
-        <v>5.4936135481769197</v>
+        <v>4.0285682362975797</v>
       </c>
       <c r="S6">
-        <v>7.4097779373118904</v>
+        <v>5.3789603978702099</v>
       </c>
       <c r="T6">
-        <v>0.91280241593140599</v>
+        <v>0.95264281228788195</v>
       </c>
       <c r="U6">
-        <v>0.13301145336276601</v>
+        <v>9.7415557413686502E-2</v>
       </c>
       <c r="V6">
-        <v>9.3896000678225509</v>
+        <v>7.2077461375264997</v>
       </c>
       <c r="W6">
-        <v>13.445100911770499</v>
+        <v>10.010928931159199</v>
       </c>
       <c r="X6">
-        <v>0.92829135721312395</v>
+        <v>0.95874276073703801</v>
       </c>
       <c r="Y6">
-        <v>0.29731808110950197</v>
+        <v>0.25545034480551998</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12.8476483043963</v>
+        <v>10.626290026968499</v>
       </c>
       <c r="C7">
-        <v>19.571497486445299</v>
+        <v>17.1693925627516</v>
       </c>
       <c r="D7">
-        <v>0.82679364918425002</v>
+        <v>0.86481356956029098</v>
       </c>
       <c r="E7">
-        <v>0.22930113253666501</v>
+        <v>0.193167939933927</v>
       </c>
       <c r="F7">
-        <v>20.3015380357146</v>
+        <v>16.108603396151</v>
       </c>
       <c r="G7">
-        <v>29.7453065702788</v>
+        <v>24.216245071443598</v>
       </c>
       <c r="H7">
-        <v>0.82759621893914204</v>
+        <v>0.88421466733238696</v>
       </c>
       <c r="I7">
-        <v>0.16314972983847301</v>
+        <v>0.13323334041724799</v>
       </c>
       <c r="J7">
-        <v>10.9515032088665</v>
+        <v>9.8997359091603805</v>
       </c>
       <c r="K7">
-        <v>18.635930496888498</v>
+        <v>18.104680594209999</v>
       </c>
       <c r="L7">
-        <v>0.62191597311969704</v>
+        <v>0.63300884615831299</v>
       </c>
       <c r="M7">
-        <v>0.42491205094526002</v>
+        <v>0.39105276590093402</v>
       </c>
       <c r="N7">
-        <v>0.161422785139818</v>
+        <v>0.139819732382509</v>
       </c>
       <c r="O7">
-        <v>0.22866319501605001</v>
+        <v>0.20740264644814499</v>
       </c>
       <c r="P7">
-        <v>0.83831196076202796</v>
+        <v>0.86456747061952999</v>
       </c>
       <c r="Q7">
-        <v>0.15613324816711599</v>
+        <v>0.13555074235606199</v>
       </c>
       <c r="R7">
-        <v>7.6345419286648903</v>
+        <v>5.3934814627604402</v>
       </c>
       <c r="S7">
-        <v>10.354460274622101</v>
+        <v>7.2131335252743796</v>
       </c>
       <c r="T7">
-        <v>0.82971578842299498</v>
+        <v>0.91483488036934302</v>
       </c>
       <c r="U7">
-        <v>0.177161776290788</v>
+        <v>0.12633485034608399</v>
       </c>
       <c r="V7">
-        <v>12.4001591532832</v>
+        <v>8.9350881102839708</v>
       </c>
       <c r="W7">
-        <v>17.822653426522301</v>
+        <v>12.5390590065909</v>
       </c>
       <c r="X7">
-        <v>0.87399487426170996</v>
+        <v>0.93527377482880603</v>
       </c>
       <c r="Y7">
-        <v>0.35197878736440402</v>
+        <v>0.28833004823073399</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>16.1847047552696</v>
+        <v>13.187267547686901</v>
       </c>
       <c r="C8">
-        <v>24.7489571767195</v>
+        <v>21.751463884250001</v>
       </c>
       <c r="D8">
-        <v>0.722861275947283</v>
+        <v>0.78290395268833801</v>
       </c>
       <c r="E8">
-        <v>0.27959438718514501</v>
+        <v>0.23145014179137699</v>
       </c>
       <c r="F8">
-        <v>25.646462643334502</v>
+        <v>20.329282591828299</v>
       </c>
       <c r="G8">
-        <v>37.621122595497901</v>
+        <v>30.608402562764098</v>
       </c>
       <c r="H8">
-        <v>0.72400056211692398</v>
+        <v>0.81488140092524397</v>
       </c>
       <c r="I8">
-        <v>0.20163498952605599</v>
+        <v>0.164988371302695</v>
       </c>
       <c r="J8">
-        <v>13.456849221813901</v>
+        <v>11.7900309375225</v>
       </c>
       <c r="K8">
-        <v>23.3104530391143</v>
+        <v>22.089518435025798</v>
       </c>
       <c r="L8">
-        <v>0.40784444811825599</v>
+        <v>0.453139914576347</v>
       </c>
       <c r="M8">
-        <v>0.48479336865761502</v>
+        <v>0.43534941505857999</v>
       </c>
       <c r="N8">
-        <v>0.20751180340178499</v>
+        <v>0.17213454716889201</v>
       </c>
       <c r="O8">
-        <v>0.29522515455492898</v>
+        <v>0.25854174251874001</v>
       </c>
       <c r="P8">
-        <v>0.73035507970081104</v>
+        <v>0.78945669774562699</v>
       </c>
       <c r="Q8">
-        <v>0.19643173854123799</v>
+        <v>0.163859156775603</v>
       </c>
       <c r="R8">
-        <v>9.8320126458174997</v>
+        <v>6.7461228189714904</v>
       </c>
       <c r="S8">
-        <v>13.3826941977423</v>
+        <v>9.0918014763287296</v>
       </c>
       <c r="T8">
-        <v>0.71548847933975401</v>
+        <v>0.86466862685415802</v>
       </c>
       <c r="U8">
-        <v>0.22043156062125799</v>
+        <v>0.153985700455849</v>
       </c>
       <c r="V8">
-        <v>15.470529122920301</v>
+        <v>10.651982926782299</v>
       </c>
       <c r="W8">
-        <v>22.317270362741201</v>
+        <v>15.0473685562832</v>
       </c>
       <c r="X8">
-        <v>0.80242835723269301</v>
+        <v>0.90678818097760305</v>
       </c>
       <c r="Y8">
-        <v>0.40586945769770399</v>
+        <v>0.320104795174941</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>19.507146617530299</v>
+        <v>15.7753222280563</v>
       </c>
       <c r="C9">
-        <v>29.845998552973899</v>
+        <v>26.348281931268001</v>
       </c>
       <c r="D9">
-        <v>0.59654825235920195</v>
+        <v>0.68116567575847298</v>
       </c>
       <c r="E9">
-        <v>0.32848027860113199</v>
+        <v>0.26887722496963501</v>
       </c>
       <c r="F9">
-        <v>30.848276258320801</v>
+        <v>24.624441199606199</v>
       </c>
       <c r="G9">
-        <v>45.182594899382103</v>
+        <v>37.141685834398402</v>
       </c>
       <c r="H9">
-        <v>0.60147688459401205</v>
+        <v>0.72714618236149098</v>
       </c>
       <c r="I9">
-        <v>0.237905432663581</v>
+        <v>0.19613972525423901</v>
       </c>
       <c r="J9">
-        <v>16.072503412845101</v>
+        <v>13.7092670244744</v>
       </c>
       <c r="K9">
-        <v>27.8314423270932</v>
+        <v>26.019335396207801</v>
       </c>
       <c r="L9">
-        <v>0.15436233137018199</v>
+        <v>0.240046599528667</v>
       </c>
       <c r="M9">
-        <v>0.54327261939230698</v>
+        <v>0.477741241647199</v>
       </c>
       <c r="N9">
-        <v>0.25186531749149599</v>
+        <v>0.20245447043413201</v>
       </c>
       <c r="O9">
-        <v>0.35938677472434999</v>
+        <v>0.30686940323305301</v>
       </c>
       <c r="P9">
-        <v>0.60009830267562703</v>
+        <v>0.70318516441784096</v>
       </c>
       <c r="Q9">
-        <v>0.23465493051789199</v>
+        <v>0.19021408936369699</v>
       </c>
       <c r="R9">
-        <v>11.9561385076547</v>
+        <v>8.0888645774446299</v>
       </c>
       <c r="S9">
-        <v>16.271194409547402</v>
+        <v>10.989656355201801</v>
       </c>
       <c r="T9">
-        <v>0.57925080494412895</v>
+        <v>0.80220324372413399</v>
       </c>
       <c r="U9">
-        <v>0.26100397925837798</v>
+        <v>0.18030930149702001</v>
       </c>
       <c r="V9">
-        <v>18.313048313937401</v>
+        <v>12.324463648292999</v>
       </c>
       <c r="W9">
-        <v>26.475699892276399</v>
+        <v>17.4123488500965</v>
       </c>
       <c r="X9">
-        <v>0.72194312908244196</v>
+        <v>0.87518682323192598</v>
       </c>
       <c r="Y9">
-        <v>0.45607630580945901</v>
+        <v>0.35029621825190599</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>22.549290276861299</v>
+        <v>18.2253277875839</v>
       </c>
       <c r="C10">
-        <v>34.334792559620396</v>
+        <v>30.6146456729332</v>
       </c>
       <c r="D10">
-        <v>0.46535609047612297</v>
+        <v>0.56905866928910698</v>
       </c>
       <c r="E10">
-        <v>0.37249314777224901</v>
+        <v>0.30360713967922298</v>
       </c>
       <c r="F10">
-        <v>35.521512589954</v>
+        <v>28.699807939986801</v>
       </c>
       <c r="G10">
-        <v>51.693494921076102</v>
+        <v>43.201086868311698</v>
       </c>
       <c r="H10">
-        <v>0.47764528157466202</v>
+        <v>0.630398591661814</v>
       </c>
       <c r="I10">
-        <v>0.27019656081005899</v>
+        <v>0.22482036142772699</v>
       </c>
       <c r="J10">
-        <v>18.044818424952499</v>
+        <v>15.567686762899701</v>
       </c>
       <c r="K10">
-        <v>31.1858721024673</v>
+        <v>29.8680011807675</v>
       </c>
       <c r="L10">
-        <v>-6.4359635213506003E-2</v>
+        <v>-3.5045635245676198E-3</v>
       </c>
       <c r="M10">
-        <v>0.58634536165633699</v>
+        <v>0.51654824393024301</v>
       </c>
       <c r="N10">
-        <v>0.290917859791609</v>
+        <v>0.22988408175309</v>
       </c>
       <c r="O10">
-        <v>0.41451320597705299</v>
+        <v>0.34958065998224302</v>
       </c>
       <c r="P10">
-        <v>0.46744333487641798</v>
+        <v>0.61446513981150896</v>
       </c>
       <c r="Q10">
-        <v>0.26817113127633102</v>
+        <v>0.213919052090871</v>
       </c>
       <c r="R10">
-        <v>13.7621713089731</v>
+        <v>9.2656416348867499</v>
       </c>
       <c r="S10">
-        <v>18.694370012287902</v>
+        <v>12.660631783822399</v>
       </c>
       <c r="T10">
-        <v>0.44429723853673397</v>
+        <v>0.73735315049849304</v>
       </c>
       <c r="U10">
-        <v>0.29490998643314498</v>
+        <v>0.20274605472673801</v>
       </c>
       <c r="V10">
-        <v>20.7196487904076</v>
+        <v>13.8671356906088</v>
       </c>
       <c r="W10">
-        <v>30.0685857872021</v>
+        <v>19.525827063494301</v>
       </c>
       <c r="X10">
-        <v>0.64135992921825202</v>
+        <v>0.84305182327303896</v>
       </c>
       <c r="Y10">
-        <v>0.49901334760112898</v>
+        <v>0.37817941768077701</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>25.275635151333699</v>
+        <v>20.4693871175913</v>
       </c>
       <c r="C11">
-        <v>38.1252897673915</v>
+        <v>34.405941233805599</v>
       </c>
       <c r="D11">
-        <v>0.33981595570182099</v>
+        <v>0.45500805696747998</v>
       </c>
       <c r="E11">
-        <v>0.41093267295678398</v>
+        <v>0.33436706125009302</v>
       </c>
       <c r="F11">
-        <v>39.561216739179301</v>
+        <v>32.307304234612801</v>
       </c>
       <c r="G11">
-        <v>56.982870683862302</v>
+        <v>48.436672825958702</v>
       </c>
       <c r="H11">
-        <v>0.36431905352894201</v>
+        <v>0.53473221200004994</v>
       </c>
       <c r="I11">
-        <v>0.29810305909993801</v>
+        <v>0.25005491690621801</v>
       </c>
       <c r="J11">
-        <v>19.7082216531733</v>
+        <v>17.318876853454402</v>
       </c>
       <c r="K11">
-        <v>33.7613416337472</v>
+        <v>33.689923520403099</v>
       </c>
       <c r="L11">
-        <v>-0.25083639100502603</v>
+        <v>-0.27978404994748302</v>
       </c>
       <c r="M11">
-        <v>0.621505635349484</v>
+        <v>0.54959337216832804</v>
       </c>
       <c r="N11">
-        <v>0.32391379168984302</v>
+        <v>0.252804206510228</v>
       </c>
       <c r="O11">
-        <v>0.45967940706535498</v>
+        <v>0.38438745434324501</v>
       </c>
       <c r="P11">
-        <v>0.34430025733613501</v>
+        <v>0.53340354651383204</v>
       </c>
       <c r="Q11">
-        <v>0.296233382051862</v>
+        <v>0.23359905310180801</v>
       </c>
       <c r="R11">
-        <v>15.208604820515401</v>
+        <v>10.268852748106999</v>
       </c>
       <c r="S11">
-        <v>20.588419018682298</v>
+        <v>14.098212798247401</v>
       </c>
       <c r="T11">
-        <v>0.32557205323119798</v>
+        <v>0.67413697220591895</v>
       </c>
       <c r="U11">
-        <v>0.321526849542557</v>
+        <v>0.22097331467890699</v>
       </c>
       <c r="V11">
-        <v>22.637289776115601</v>
+        <v>15.0940960244913</v>
       </c>
       <c r="W11">
-        <v>33.039559202530803</v>
+        <v>21.172693908385401</v>
       </c>
       <c r="X11">
-        <v>0.56699456493676204</v>
+        <v>0.81546529877284701</v>
       </c>
       <c r="Y11">
-        <v>0.53258615487510297</v>
+        <v>0.40038119837550801</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>27.242817329047401</v>
+        <v>22.313934701606001</v>
       </c>
       <c r="C12">
-        <v>40.7276391918586</v>
+        <v>37.407967859770999</v>
       </c>
       <c r="D12">
-        <v>0.24553678730968401</v>
+        <v>0.35490985131936797</v>
       </c>
       <c r="E12">
-        <v>0.44022812551578999</v>
+        <v>0.35961215066013802</v>
       </c>
       <c r="F12">
-        <v>42.580101196220497</v>
+        <v>35.3518185604959</v>
       </c>
       <c r="G12">
-        <v>60.6525102923639</v>
+        <v>52.742514631823198</v>
       </c>
       <c r="H12">
-        <v>0.27868255446388601</v>
+        <v>0.44751023258199102</v>
       </c>
       <c r="I12">
-        <v>0.32006438071931598</v>
+        <v>0.27093591341185302</v>
       </c>
       <c r="J12">
-        <v>20.804807820001798</v>
+        <v>18.922890447667701</v>
       </c>
       <c r="K12">
-        <v>35.283981478500003</v>
+        <v>37.6241382157137</v>
       </c>
       <c r="L12">
-        <v>-0.36975630131293702</v>
+        <v>-0.59988501536563699</v>
       </c>
       <c r="M12">
-        <v>0.64633063531103097</v>
+        <v>0.57738701472543297</v>
       </c>
       <c r="N12">
-        <v>0.35014760058333799</v>
+        <v>0.27128736602149001</v>
       </c>
       <c r="O12">
-        <v>0.49539433286961798</v>
+        <v>0.41094957416619998</v>
       </c>
       <c r="P12">
-        <v>0.237630450036033</v>
+        <v>0.466171087032484</v>
       </c>
       <c r="Q12">
-        <v>0.31872160632270302</v>
+        <v>0.249071426252581</v>
       </c>
       <c r="R12">
-        <v>16.230569252508499</v>
+        <v>10.9837766115122</v>
       </c>
       <c r="S12">
-        <v>21.8697428872842</v>
+        <v>15.110932380685201</v>
       </c>
       <c r="T12">
-        <v>0.23855169327239401</v>
+        <v>0.62542219067057203</v>
       </c>
       <c r="U12">
-        <v>0.340345906330281</v>
+        <v>0.23382470824710599</v>
       </c>
       <c r="V12">
-        <v>24.011315311707801</v>
+        <v>16.044983273421501</v>
       </c>
       <c r="W12">
-        <v>35.213434759278201</v>
+        <v>22.480980447026798</v>
       </c>
       <c r="X12">
-        <v>0.50815157711791303</v>
+        <v>0.79196196078921799</v>
       </c>
       <c r="Y12">
-        <v>0.55764173610357004</v>
+        <v>0.41685508445539698</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>28.870650663886899</v>
+        <v>23.865821280369101</v>
       </c>
       <c r="C13">
-        <v>42.716575671161202</v>
+        <v>39.776535663439603</v>
       </c>
       <c r="D13">
-        <v>0.16902584243987001</v>
+        <v>0.26974452881646499</v>
       </c>
       <c r="E13">
-        <v>0.46416409782701901</v>
+        <v>0.38081706809067001</v>
       </c>
       <c r="F13">
-        <v>45.134966519600802</v>
+        <v>37.773823701150498</v>
       </c>
       <c r="G13">
-        <v>63.531453673917497</v>
+        <v>56.061778466161797</v>
       </c>
       <c r="H13">
-        <v>0.20738257922130399</v>
+        <v>0.37483880072185999</v>
       </c>
       <c r="I13">
-        <v>0.33877642413033698</v>
+        <v>0.287281860897737</v>
       </c>
       <c r="J13">
-        <v>21.591060710415</v>
+        <v>20.332861953626999</v>
       </c>
       <c r="K13">
-        <v>36.147400705589597</v>
+        <v>41.799555594536002</v>
       </c>
       <c r="L13">
-        <v>-0.44068355824841299</v>
+        <v>-0.97882381057582701</v>
       </c>
       <c r="M13">
-        <v>0.66621646895700004</v>
+        <v>0.59885104971379499</v>
       </c>
       <c r="N13">
-        <v>0.36916250057623401</v>
+        <v>0.28537058431059797</v>
       </c>
       <c r="O13">
-        <v>0.52103975884744402</v>
+        <v>0.430492165613793</v>
       </c>
       <c r="P13">
-        <v>0.15592740486352499</v>
+        <v>0.41369424149998801</v>
       </c>
       <c r="Q13">
-        <v>0.33492804966089301</v>
+        <v>0.26046434617728598</v>
       </c>
       <c r="R13">
-        <v>16.837751677309701</v>
+        <v>11.5393597020812</v>
       </c>
       <c r="S13">
-        <v>22.570744237457401</v>
+        <v>15.8402357300759</v>
       </c>
       <c r="T13">
-        <v>0.188523478011726</v>
+        <v>0.58816897683051605</v>
       </c>
       <c r="U13">
-        <v>0.35190609205613499</v>
+        <v>0.243324565437434</v>
       </c>
       <c r="V13">
-        <v>24.961712398492701</v>
+        <v>16.7160870035835</v>
       </c>
       <c r="W13">
-        <v>36.501208587577501</v>
+        <v>23.414608848199201</v>
       </c>
       <c r="X13">
-        <v>0.47153494559917503</v>
+        <v>0.77433084975543998</v>
       </c>
       <c r="Y13">
-        <v>0.57619405572846505</v>
+        <v>0.428317406861983</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>30.105582664875701</v>
+        <v>24.991423088997401</v>
       </c>
       <c r="C14">
-        <v>44.161212566205897</v>
+        <v>41.479493726184899</v>
       </c>
       <c r="D14">
-        <v>0.110983604364461</v>
+        <v>0.20501838324497901</v>
       </c>
       <c r="E14">
-        <v>0.48323482125849798</v>
+        <v>0.39662056958208097</v>
       </c>
       <c r="F14">
-        <v>47.055006894707603</v>
+        <v>39.593169381610402</v>
       </c>
       <c r="G14">
-        <v>65.6730120449743</v>
+        <v>58.543351770444197</v>
       </c>
       <c r="H14">
-        <v>0.15184003404806001</v>
+        <v>0.31725436407292501</v>
       </c>
       <c r="I14">
-        <v>0.35381326897188398</v>
+        <v>0.29973918524727999</v>
       </c>
       <c r="J14">
-        <v>21.818212401605798</v>
+        <v>21.423353070681902</v>
       </c>
       <c r="K14">
-        <v>36.273376523166199</v>
+        <v>45.645134845482502</v>
       </c>
       <c r="L14">
-        <v>-0.45305107373739401</v>
+        <v>-1.36378505230652</v>
       </c>
       <c r="M14">
-        <v>0.67618307730633898</v>
+        <v>0.61348755854532799</v>
       </c>
       <c r="N14">
-        <v>0.38275059045473397</v>
+        <v>0.29584288612901999</v>
       </c>
       <c r="O14">
-        <v>0.54025253593618505</v>
+        <v>0.444942349422907</v>
       </c>
       <c r="P14">
-        <v>9.1964700627542098E-2</v>
+        <v>0.373239263439963</v>
       </c>
       <c r="Q14">
-        <v>0.34666127577977501</v>
+        <v>0.26823339814547997</v>
       </c>
       <c r="R14">
-        <v>17.184273336288602</v>
+        <v>11.9178481851966</v>
       </c>
       <c r="S14">
-        <v>22.945842220252601</v>
+        <v>16.303974754965399</v>
       </c>
       <c r="T14">
-        <v>0.16096282025817399</v>
+        <v>0.56349466644010404</v>
       </c>
       <c r="U14">
-        <v>0.35861472455912002</v>
+        <v>0.25004433516360602</v>
       </c>
       <c r="V14">
-        <v>25.4775284057731</v>
+        <v>17.098913912013501</v>
       </c>
       <c r="W14">
-        <v>37.013020819214397</v>
+        <v>23.992660676646899</v>
       </c>
       <c r="X14">
-        <v>0.45662797032050201</v>
+        <v>0.76305735036213396</v>
       </c>
       <c r="Y14">
-        <v>0.58817272606459603</v>
+        <v>0.43508383567657</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>31.178538509852601</v>
+        <v>25.806709320731098</v>
       </c>
       <c r="C15">
-        <v>45.475425766879098</v>
+        <v>42.687248185627702</v>
       </c>
       <c r="D15">
-        <v>5.6511403759548898E-2</v>
+        <v>0.15724106912751601</v>
       </c>
       <c r="E15">
-        <v>0.499731091293035</v>
+        <v>0.40898686232640502</v>
       </c>
       <c r="F15">
-        <v>48.918991680185599</v>
+        <v>40.943585331485899</v>
       </c>
       <c r="G15">
-        <v>67.916180912889104</v>
+        <v>60.5151905044982</v>
       </c>
       <c r="H15">
-        <v>9.1685963005723695E-2</v>
+        <v>0.26942346222667202</v>
       </c>
       <c r="I15">
-        <v>0.36760612138475901</v>
+        <v>0.30860148463236398</v>
       </c>
       <c r="J15">
-        <v>22.266617487596399</v>
+        <v>22.267233281212</v>
       </c>
       <c r="K15">
-        <v>36.646207699781201</v>
+        <v>49.283634028419897</v>
       </c>
       <c r="L15">
-        <v>-0.48480171512276099</v>
+        <v>-1.75956962508099</v>
       </c>
       <c r="M15">
-        <v>0.68807034617020102</v>
+        <v>0.62311993717851299</v>
       </c>
       <c r="N15">
-        <v>0.396611215613414</v>
+        <v>0.305062356229856</v>
       </c>
       <c r="O15">
-        <v>0.55754550038235495</v>
+        <v>0.45694158841938898</v>
       </c>
       <c r="P15">
-        <v>3.2472037154282901E-2</v>
+        <v>0.33860963826066498</v>
       </c>
       <c r="Q15">
-        <v>0.35678997358206599</v>
+        <v>0.27454406769584699</v>
       </c>
       <c r="R15">
-        <v>17.390948739249499</v>
+        <v>12.2127941647403</v>
       </c>
       <c r="S15">
-        <v>23.133067219341299</v>
+        <v>16.628184510320601</v>
       </c>
       <c r="T15">
-        <v>0.14691818990421701</v>
+        <v>0.54577974081867797</v>
       </c>
       <c r="U15">
-        <v>0.36192102120171599</v>
+        <v>0.25551943407537497</v>
       </c>
       <c r="V15">
-        <v>25.7507371688557</v>
+        <v>17.2533399278757</v>
       </c>
       <c r="W15">
-        <v>37.0729559405491</v>
+        <v>24.226046215102802</v>
       </c>
       <c r="X15">
-        <v>0.45488076079234502</v>
+        <v>0.75842925907790204</v>
       </c>
       <c r="Y15">
-        <v>0.59482507316385203</v>
+        <v>0.43982287266164199</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>32.219894277326397</v>
+        <v>26.5656117813705</v>
       </c>
       <c r="C16">
-        <v>46.822150533684798</v>
+        <v>44.184646146172902</v>
       </c>
       <c r="D16">
-        <v>-9.3565638320280899E-4</v>
+        <v>9.6270599967050299E-2</v>
       </c>
       <c r="E16">
-        <v>0.51443988341397096</v>
+        <v>0.41867959568481999</v>
       </c>
       <c r="F16">
-        <v>50.516467352908002</v>
+        <v>41.997516458093301</v>
       </c>
       <c r="G16">
-        <v>70.012488113717794</v>
+        <v>62.387056412434902</v>
       </c>
       <c r="H16">
-        <v>3.3465750170273298E-2</v>
+        <v>0.22239839004388401</v>
       </c>
       <c r="I16">
-        <v>0.37930149393620699</v>
+        <v>0.31545579899784898</v>
       </c>
       <c r="J16">
-        <v>22.577481604352901</v>
+        <v>23.006276702208599</v>
       </c>
       <c r="K16">
-        <v>36.937914045716703</v>
+        <v>52.282469682371101</v>
       </c>
       <c r="L16">
-        <v>-0.50994577148263698</v>
+        <v>-2.1093978591317999</v>
       </c>
       <c r="M16">
-        <v>0.69615934836723703</v>
+        <v>0.63203519714158896</v>
       </c>
       <c r="N16">
-        <v>0.40618507967155498</v>
+        <v>0.31213467994577399</v>
       </c>
       <c r="O16">
-        <v>0.570048629431822</v>
+        <v>0.46754181966765701</v>
       </c>
       <c r="P16">
-        <v>-1.1770684468122201E-2</v>
+        <v>0.307237565430171</v>
       </c>
       <c r="Q16">
-        <v>0.36387455798853402</v>
+        <v>0.27927884992760099</v>
       </c>
       <c r="R16">
-        <v>17.507608175286901</v>
+        <v>12.420814286082599</v>
       </c>
       <c r="S16">
-        <v>23.225331039233701</v>
+        <v>16.863000939138001</v>
       </c>
       <c r="T16">
-        <v>0.13985551217522399</v>
+        <v>0.53270441849342598</v>
       </c>
       <c r="U16">
-        <v>0.36371155069331002</v>
+        <v>0.25993643875943601</v>
       </c>
       <c r="V16">
-        <v>25.900946216171501</v>
+        <v>17.232312503352698</v>
       </c>
       <c r="W16">
-        <v>36.9684138373972</v>
+        <v>24.2791929831175</v>
       </c>
       <c r="X16">
-        <v>0.45795613571194799</v>
+        <v>0.75736782553584703</v>
       </c>
       <c r="Y16">
-        <v>0.59836779665511297</v>
+        <v>0.44247457451248701</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>33.235699934210103</v>
+        <v>27.122316108318799</v>
       </c>
       <c r="C17">
-        <v>48.136255705564103</v>
+        <v>45.334753699204498</v>
       </c>
       <c r="D17">
-        <v>-5.8713318643525497E-2</v>
+        <v>4.7752898017397502E-2</v>
       </c>
       <c r="E17">
-        <v>0.52766066384955601</v>
+        <v>0.42610244793153701</v>
       </c>
       <c r="F17">
-        <v>52.0688146536395</v>
+        <v>42.988419182603899</v>
       </c>
       <c r="G17">
-        <v>72.065609000170994</v>
+        <v>64.202462534226001</v>
       </c>
       <c r="H17">
-        <v>-2.5460000144745299E-2</v>
+        <v>0.17525850891911299</v>
       </c>
       <c r="I17">
-        <v>0.38997506937792997</v>
+        <v>0.32127351217278499</v>
       </c>
       <c r="J17">
-        <v>22.7367610475272</v>
+        <v>23.411143854542999</v>
       </c>
       <c r="K17">
-        <v>37.139211073518503</v>
+        <v>54.015770474766803</v>
       </c>
       <c r="L17">
-        <v>-0.527825342184288</v>
+        <v>-2.32281954510555</v>
       </c>
       <c r="M17">
-        <v>0.69994145659655105</v>
+        <v>0.63754336777446596</v>
       </c>
       <c r="N17">
-        <v>0.41562429753957603</v>
+        <v>0.317425488184225</v>
       </c>
       <c r="O17">
-        <v>0.58097598274631301</v>
+        <v>0.47582051973758599</v>
       </c>
       <c r="P17">
-        <v>-5.1302813332566102E-2</v>
+        <v>0.28215919390452798</v>
       </c>
       <c r="Q17">
-        <v>0.370523009840664</v>
+        <v>0.28297931021071498</v>
       </c>
       <c r="R17">
-        <v>17.7337180993588</v>
+        <v>12.5607577141185</v>
       </c>
       <c r="S17">
-        <v>23.471652708291401</v>
+        <v>17.090037577326601</v>
       </c>
       <c r="T17">
-        <v>0.121300362669159</v>
+        <v>0.51990258903888198</v>
       </c>
       <c r="U17">
-        <v>0.36649003308739903</v>
+        <v>0.262583753286322</v>
       </c>
       <c r="V17">
-        <v>25.945398457958099</v>
+        <v>17.2001221755609</v>
       </c>
       <c r="W17">
-        <v>36.730321488798303</v>
+        <v>24.233936908179199</v>
       </c>
       <c r="X17">
-        <v>0.46490750008755799</v>
+        <v>0.75826561986032304</v>
       </c>
       <c r="Y17">
-        <v>0.60173047684789205</v>
+        <v>0.44428373881462802</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>34.139023550003898</v>
+        <v>27.6246396674767</v>
       </c>
       <c r="C18">
-        <v>49.312809755197399</v>
+        <v>46.141748137779999</v>
       </c>
       <c r="D18">
-        <v>-0.112077070232452</v>
+        <v>1.25849930958056E-2</v>
       </c>
       <c r="E18">
-        <v>0.53978103193807403</v>
+        <v>0.43204588162831598</v>
       </c>
       <c r="F18">
-        <v>53.693175827273997</v>
+        <v>43.729120152574602</v>
       </c>
       <c r="G18">
-        <v>74.189172471185501</v>
+        <v>65.703072372122506</v>
       </c>
       <c r="H18">
-        <v>-8.8394186837339198E-2</v>
+        <v>0.13490522492868601</v>
       </c>
       <c r="I18">
-        <v>0.40071036694350298</v>
+        <v>0.32541695609236299</v>
       </c>
       <c r="J18">
-        <v>23.3263587849126</v>
+        <v>23.7401914108734</v>
       </c>
       <c r="K18">
-        <v>37.809870390357503</v>
+        <v>54.9673613160288</v>
       </c>
       <c r="L18">
-        <v>-0.58515649357121502</v>
+        <v>-2.4451769194186501</v>
       </c>
       <c r="M18">
-        <v>0.70956644816449099</v>
+        <v>0.64155777716194795</v>
       </c>
       <c r="N18">
-        <v>0.42296386295599597</v>
+        <v>0.32299367568692899</v>
       </c>
       <c r="O18">
-        <v>0.59021404360920704</v>
+        <v>0.48495839574403199</v>
       </c>
       <c r="P18">
-        <v>-8.5457438184781603E-2</v>
+        <v>0.25395487713901299</v>
       </c>
       <c r="Q18">
-        <v>0.37599190799441401</v>
+        <v>0.28645520796824703</v>
       </c>
       <c r="R18">
-        <v>17.914429484999101</v>
+        <v>12.685161107469099</v>
       </c>
       <c r="S18">
-        <v>23.705584306884202</v>
+        <v>17.307598316982901</v>
       </c>
       <c r="T18">
-        <v>0.10350403216103</v>
+        <v>0.50748565347028896</v>
       </c>
       <c r="U18">
-        <v>0.37073578658590201</v>
+        <v>0.264341595280633</v>
       </c>
       <c r="V18">
-        <v>26.1299881217093</v>
+        <v>17.112944441780002</v>
       </c>
       <c r="W18">
-        <v>36.7548123650446</v>
+        <v>24.126497591843201</v>
       </c>
       <c r="X18">
-        <v>0.46417031032615202</v>
+        <v>0.76039299722395504</v>
       </c>
       <c r="Y18">
-        <v>0.60598590221789095</v>
+        <v>0.44601792808979901</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>35.091861358872499</v>
+        <v>28.0974159582528</v>
       </c>
       <c r="C19">
-        <v>50.4947361998654</v>
+        <v>46.747422490681402</v>
       </c>
       <c r="D19">
-        <v>-0.16727512697389901</v>
+        <v>-1.4626961011690601E-2</v>
       </c>
       <c r="E19">
-        <v>0.55197798440110002</v>
+        <v>0.43643977241413701</v>
       </c>
       <c r="F19">
-        <v>55.068356646923498</v>
+        <v>44.653028484250498</v>
       </c>
       <c r="G19">
-        <v>76.046172312966704</v>
+        <v>67.243138787275797</v>
       </c>
       <c r="H19">
-        <v>-0.14542293050739699</v>
+        <v>9.23739485252007E-2</v>
       </c>
       <c r="I19">
-        <v>0.40967076767001298</v>
+        <v>0.32959078832572303</v>
       </c>
       <c r="J19">
-        <v>23.6020938608691</v>
+        <v>24.049959277123101</v>
       </c>
       <c r="K19">
-        <v>38.135468750916701</v>
+        <v>55.661138134206503</v>
       </c>
       <c r="L19">
-        <v>-0.614740419459472</v>
+        <v>-2.5377671312028101</v>
       </c>
       <c r="M19">
-        <v>0.71455861759383699</v>
+        <v>0.64616353700128604</v>
       </c>
       <c r="N19">
-        <v>0.43156081058755702</v>
+        <v>0.329313512268192</v>
       </c>
       <c r="O19">
-        <v>0.60010409391833897</v>
+        <v>0.49380802361544801</v>
       </c>
       <c r="P19">
-        <v>-0.12275192491987399</v>
+        <v>0.226036092225536</v>
       </c>
       <c r="Q19">
-        <v>0.38170364242236698</v>
+        <v>0.290460418752366</v>
       </c>
       <c r="R19">
-        <v>18.243068415295902</v>
+        <v>12.789143539912599</v>
       </c>
       <c r="S19">
-        <v>24.094799183244501</v>
+        <v>17.4751075694764</v>
       </c>
       <c r="T19">
-        <v>7.3644913583234703E-2</v>
+        <v>0.49780872047778901</v>
       </c>
       <c r="U19">
-        <v>0.37622653372237702</v>
+        <v>0.26555657948086098</v>
       </c>
       <c r="V19">
-        <v>26.3595941834317</v>
+        <v>17.083298954864301</v>
       </c>
       <c r="W19">
-        <v>37.047015041899201</v>
+        <v>24.035640793165399</v>
       </c>
       <c r="X19">
-        <v>0.45558082021782997</v>
+        <v>0.76217925155579302</v>
       </c>
       <c r="Y19">
-        <v>0.60971113326305704</v>
+        <v>0.44919655854375801</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>35.599579915578502</v>
+        <v>28.6118697271176</v>
       </c>
       <c r="C20">
-        <v>51.2363110423032</v>
+        <v>47.148862345530603</v>
       </c>
       <c r="D20">
-        <v>-0.20336574575789301</v>
+        <v>-3.3412763745943597E-2</v>
       </c>
       <c r="E20">
-        <v>0.560905539585284</v>
+        <v>0.44069073122454</v>
       </c>
       <c r="F20">
-        <v>56.295830495742798</v>
+        <v>45.516065112249699</v>
       </c>
       <c r="G20">
-        <v>77.681183572020601</v>
+        <v>68.466543290734805</v>
       </c>
       <c r="H20">
-        <v>-0.19732099998357699</v>
+        <v>5.7407754484844101E-2</v>
       </c>
       <c r="I20">
-        <v>0.41769979885498298</v>
+        <v>0.33359058545634901</v>
       </c>
       <c r="J20">
-        <v>24.075048921832099</v>
+        <v>24.0721799208962</v>
       </c>
       <c r="K20">
-        <v>38.7033328748903</v>
+        <v>54.2526607416169</v>
       </c>
       <c r="L20">
-        <v>-0.66608674831741799</v>
+        <v>-2.3667474374710702</v>
       </c>
       <c r="M20">
-        <v>0.72239951945105196</v>
+        <v>0.64963610524448201</v>
       </c>
       <c r="N20">
-        <v>0.43684780220755098</v>
+        <v>0.33277852302510502</v>
       </c>
       <c r="O20">
-        <v>0.60694406210385898</v>
+        <v>0.49769564921527498</v>
       </c>
       <c r="P20">
-        <v>-0.14929380090856401</v>
+        <v>0.213278297140439</v>
       </c>
       <c r="Q20">
-        <v>0.386271066914184</v>
+        <v>0.29321498576621002</v>
       </c>
       <c r="R20">
-        <v>18.570231052382699</v>
+        <v>12.903674176938299</v>
       </c>
       <c r="S20">
-        <v>24.4519870814451</v>
+        <v>17.651672288282398</v>
       </c>
       <c r="T20">
-        <v>4.5820711882267301E-2</v>
+        <v>0.487532160162853</v>
       </c>
       <c r="U20">
-        <v>0.38270648984945299</v>
+        <v>0.26678586322916398</v>
       </c>
       <c r="V20">
-        <v>26.671228262779099</v>
+        <v>17.1065234213754</v>
       </c>
       <c r="W20">
-        <v>37.514199842969397</v>
+        <v>23.987947079077099</v>
       </c>
       <c r="X20">
-        <v>0.44172234394520998</v>
+        <v>0.76310641758951103</v>
       </c>
       <c r="Y20">
-        <v>0.61414448771423202</v>
+        <v>0.45323618556849798</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>36.223314231084203</v>
+        <v>29.027057659884299</v>
       </c>
       <c r="C21">
-        <v>51.981858106658002</v>
+        <v>47.293837711769299</v>
       </c>
       <c r="D21">
-        <v>-0.24045279032823899</v>
+        <v>-4.11805948741783E-2</v>
       </c>
       <c r="E21">
-        <v>0.56896932935203104</v>
+        <v>0.444694695889575</v>
       </c>
       <c r="F21">
-        <v>57.399016751906302</v>
+        <v>46.3563496785358</v>
       </c>
       <c r="G21">
-        <v>79.126422917141895</v>
+        <v>69.186704965851902</v>
       </c>
       <c r="H21">
-        <v>-0.244592252861807</v>
+        <v>3.5754390340065299E-2</v>
       </c>
       <c r="I21">
-        <v>0.42475666019906499</v>
+        <v>0.33810145949001902</v>
       </c>
       <c r="J21">
-        <v>24.3403959097704</v>
+        <v>24.371081432604701</v>
       </c>
       <c r="K21">
-        <v>38.983774912815399</v>
+        <v>52.313081862146298</v>
       </c>
       <c r="L21">
-        <v>-0.69392954214365399</v>
+        <v>-2.1365526139189401</v>
       </c>
       <c r="M21">
-        <v>0.72733063223160999</v>
+        <v>0.657231337322846</v>
       </c>
       <c r="N21">
-        <v>0.44381215416437902</v>
+        <v>0.33684479580214499</v>
       </c>
       <c r="O21">
-        <v>0.61419030831196098</v>
+        <v>0.50153683831486495</v>
       </c>
       <c r="P21">
-        <v>-0.17786830948179599</v>
+        <v>0.20049753418394001</v>
       </c>
       <c r="Q21">
-        <v>0.39177783563115798</v>
+        <v>0.29609952089964298</v>
       </c>
       <c r="R21">
-        <v>18.843108253275599</v>
+        <v>12.945338152758801</v>
       </c>
       <c r="S21">
-        <v>24.783252320365801</v>
+        <v>17.701287354023901</v>
       </c>
       <c r="T21">
-        <v>1.96744660838938E-2</v>
+        <v>0.48459464316283202</v>
       </c>
       <c r="U21">
-        <v>0.38902073136988402</v>
+        <v>0.26751472112003899</v>
       </c>
       <c r="V21">
-        <v>26.904554458281801</v>
+        <v>17.144431442556598</v>
       </c>
       <c r="W21">
-        <v>38.025581448867001</v>
+        <v>23.974621685511099</v>
       </c>
       <c r="X21">
-        <v>0.42636189643499101</v>
+        <v>0.76335647507724902</v>
       </c>
       <c r="Y21">
-        <v>0.61715098508458199</v>
+        <v>0.45728427325323801</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>36.575349686324898</v>
+        <v>29.420343191141502</v>
       </c>
       <c r="C22">
-        <v>52.4611486421229</v>
+        <v>47.482881130735201</v>
       </c>
       <c r="D22">
-        <v>-0.265333365303831</v>
+        <v>-5.0958828258143601E-2</v>
       </c>
       <c r="E22">
-        <v>0.57459095827418005</v>
+        <v>0.44860806695028999</v>
       </c>
       <c r="F22">
-        <v>58.149080257677603</v>
+        <v>47.2491338179452</v>
       </c>
       <c r="G22">
-        <v>80.168027357941597</v>
+        <v>69.736409253606695</v>
       </c>
       <c r="H22">
-        <v>-0.27992686478732698</v>
+        <v>1.86450223184664E-2</v>
       </c>
       <c r="I22">
-        <v>0.42989985105019202</v>
+        <v>0.34311312080987599</v>
       </c>
       <c r="J22">
-        <v>25.108511083024698</v>
+        <v>24.592477839585701</v>
       </c>
       <c r="K22">
-        <v>39.847812791921498</v>
+        <v>50.597560576917601</v>
       </c>
       <c r="L22">
-        <v>-0.77405645396935996</v>
+        <v>-1.9405990550107199</v>
       </c>
       <c r="M22">
-        <v>0.73839740542682197</v>
+        <v>0.66166631594948999</v>
       </c>
       <c r="N22">
-        <v>0.44796036026984498</v>
+        <v>0.34111773298627501</v>
       </c>
       <c r="O22">
-        <v>0.61927691227710702</v>
+        <v>0.50523148002423401</v>
       </c>
       <c r="P22">
-        <v>-0.198485545154749</v>
+        <v>0.18806246766269</v>
       </c>
       <c r="Q22">
-        <v>0.39560996931883402</v>
+        <v>0.29870243336067298</v>
       </c>
       <c r="R22">
-        <v>19.060197861701599</v>
+        <v>13.1066955553214</v>
       </c>
       <c r="S22">
-        <v>25.071589574629201</v>
+        <v>17.872668724752799</v>
       </c>
       <c r="T22">
-        <v>-3.3335451403158E-3</v>
+        <v>0.47454030156823701</v>
       </c>
       <c r="U22">
-        <v>0.394193247423684</v>
+        <v>0.26986795493239402</v>
       </c>
       <c r="V22">
-        <v>27.249863944070398</v>
+        <v>17.171858289198401</v>
       </c>
       <c r="W22">
-        <v>38.788646233006503</v>
+        <v>23.9733290650905</v>
       </c>
       <c r="X22">
-        <v>0.403084957337149</v>
+        <v>0.76337397867911605</v>
       </c>
       <c r="Y22">
-        <v>0.61889403104268403</v>
+        <v>0.459030904899981</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>36.688722305452401</v>
+        <v>29.702442499681101</v>
       </c>
       <c r="C23">
-        <v>52.631921136057201</v>
+        <v>47.434967360407498</v>
       </c>
       <c r="D23">
-        <v>-0.27535138319454999</v>
+        <v>-5.0185239214186099E-2</v>
       </c>
       <c r="E23">
-        <v>0.57824614641736205</v>
+        <v>0.45220946617039998</v>
       </c>
       <c r="F23">
-        <v>58.662175256675702</v>
+        <v>48.355449012147297</v>
       </c>
       <c r="G23">
-        <v>80.895202249872597</v>
+        <v>70.855702862161394</v>
       </c>
       <c r="H23">
-        <v>-0.305488401420274</v>
+        <v>-1.47898734368812E-2</v>
       </c>
       <c r="I23">
-        <v>0.434078116689741</v>
+        <v>0.34905156067457399</v>
       </c>
       <c r="J23">
-        <v>25.443808418967802</v>
+        <v>24.828074659474101</v>
       </c>
       <c r="K23">
-        <v>40.149410271671101</v>
+        <v>48.489452361038502</v>
       </c>
       <c r="L23">
-        <v>-0.80528367302112602</v>
+        <v>-1.7066260797035999</v>
       </c>
       <c r="M23">
-        <v>0.74294245801618097</v>
+        <v>0.66539303454575205</v>
       </c>
       <c r="N23">
-        <v>0.45051974692500901</v>
+        <v>0.34603880352778099</v>
       </c>
       <c r="O23">
-        <v>0.62347612065118296</v>
+        <v>0.50980068323893202</v>
       </c>
       <c r="P23">
-        <v>-0.21573867980154501</v>
+        <v>0.172735175341063</v>
       </c>
       <c r="Q23">
-        <v>0.39879037283132501</v>
+        <v>0.30149433958817401</v>
       </c>
       <c r="R23">
-        <v>19.300305862543699</v>
+        <v>13.3752570992849</v>
       </c>
       <c r="S23">
-        <v>25.338191250140799</v>
+        <v>18.1583538130253</v>
       </c>
       <c r="T23">
-        <v>-2.47908306148505E-2</v>
+        <v>0.457608596300835</v>
       </c>
       <c r="U23">
-        <v>0.39997365221342801</v>
+        <v>0.27429738483037502</v>
       </c>
       <c r="V23">
-        <v>27.620530221432499</v>
+        <v>17.312974759953999</v>
       </c>
       <c r="W23">
-        <v>39.628382549189503</v>
+        <v>24.078792302301</v>
       </c>
       <c r="X23">
-        <v>0.37695203693131701</v>
+        <v>0.76128477280137397</v>
       </c>
       <c r="Y23">
-        <v>0.62013133536467002</v>
+        <v>0.45977291865537301</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>36.942026394883797</v>
+        <v>30.181686557447598</v>
       </c>
       <c r="C24">
-        <v>52.863295220321</v>
+        <v>47.652020044332502</v>
       </c>
       <c r="D24">
-        <v>-0.288067295978858</v>
+        <v>-6.0984715844077199E-2</v>
       </c>
       <c r="E24">
-        <v>0.58310030492113396</v>
+        <v>0.45752373092162602</v>
       </c>
       <c r="F24">
-        <v>58.934440041504203</v>
+        <v>49.2064201033957</v>
       </c>
       <c r="G24">
-        <v>81.215299198750799</v>
+        <v>71.3842683476758</v>
       </c>
       <c r="H24">
-        <v>-0.31782446007184201</v>
+        <v>-3.1517016579161602E-2</v>
       </c>
       <c r="I24">
-        <v>0.43739099806159498</v>
+        <v>0.35443319942391999</v>
       </c>
       <c r="J24">
-        <v>25.494202616437601</v>
+        <v>25.093322938984802</v>
       </c>
       <c r="K24">
-        <v>40.091646128322701</v>
+        <v>47.616381649224202</v>
       </c>
       <c r="L24">
-        <v>-0.80394453297163704</v>
+        <v>-1.61541156074662</v>
       </c>
       <c r="M24">
-        <v>0.74354345908425001</v>
+        <v>0.66769594942126897</v>
       </c>
       <c r="N24">
-        <v>0.45081763383569701</v>
+        <v>0.35078845549794901</v>
       </c>
       <c r="O24">
-        <v>0.62501242484278996</v>
+        <v>0.51462352842222403</v>
       </c>
       <c r="P24">
-        <v>-0.22248520379779099</v>
+        <v>0.156528478980618</v>
       </c>
       <c r="Q24">
-        <v>0.40044467465980699</v>
+        <v>0.30432768893109202</v>
       </c>
       <c r="R24">
-        <v>19.5489169035435</v>
+        <v>13.595057796082701</v>
       </c>
       <c r="S24">
-        <v>25.6342234607264</v>
+        <v>18.427817749426101</v>
       </c>
       <c r="T24">
-        <v>-4.8831953830004098E-2</v>
+        <v>0.44141522845796499</v>
       </c>
       <c r="U24">
-        <v>0.40584696026328299</v>
+        <v>0.27805452366934003</v>
       </c>
       <c r="V24">
-        <v>28.175081624394402</v>
+        <v>17.573912312025101</v>
       </c>
       <c r="W24">
-        <v>40.882151061510697</v>
+        <v>24.445613554331</v>
       </c>
       <c r="X24">
-        <v>0.33690672837631602</v>
+        <v>0.75395674944370605</v>
       </c>
       <c r="Y24">
-        <v>0.62235679097514895</v>
+        <v>0.46028868305718301</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>37.033271372337701</v>
+        <v>30.565394654893598</v>
       </c>
       <c r="C25">
-        <v>52.932423319651399</v>
+        <v>47.690252950072001</v>
       </c>
       <c r="D25">
-        <v>-0.29255019887219702</v>
+        <v>-6.3603114560674801E-2</v>
       </c>
       <c r="E25">
-        <v>0.58641594569386402</v>
+        <v>0.46330413339816801</v>
       </c>
       <c r="F25">
-        <v>59.3370541264688</v>
+        <v>50.508734460963403</v>
       </c>
       <c r="G25">
-        <v>81.593686081977793</v>
+        <v>73.058270521866305</v>
       </c>
       <c r="H25">
-        <v>-0.33180854721185299</v>
+        <v>-8.1838108813522006E-2</v>
       </c>
       <c r="I25">
-        <v>0.44170945505787002</v>
+        <v>0.36136716117029399</v>
       </c>
       <c r="J25">
-        <v>25.515370113491599</v>
+        <v>25.1307062191146</v>
       </c>
       <c r="K25">
-        <v>40.1543369951575</v>
+        <v>46.050215967904997</v>
       </c>
       <c r="L25">
-        <v>-0.81280701600365701</v>
+        <v>-1.45054352859624</v>
       </c>
       <c r="M25">
-        <v>0.74282094683321398</v>
+        <v>0.66922081886975104</v>
       </c>
       <c r="N25">
-        <v>0.45415079367332101</v>
+        <v>0.355459405221771</v>
       </c>
       <c r="O25">
-        <v>0.62876853816164802</v>
+        <v>0.51927860571951701</v>
       </c>
       <c r="P25">
-        <v>-0.237738718193719</v>
+        <v>0.14084771980970101</v>
       </c>
       <c r="Q25">
-        <v>0.40308569275546502</v>
+        <v>0.30772914901617399</v>
       </c>
       <c r="R25">
-        <v>19.782717150764601</v>
+        <v>13.951387858226401</v>
       </c>
       <c r="S25">
-        <v>25.9432296184712</v>
+        <v>18.893005496576599</v>
       </c>
       <c r="T25">
-        <v>-7.4194591871543203E-2</v>
+        <v>0.41289756448343401</v>
       </c>
       <c r="U25">
-        <v>0.409402815589199</v>
+        <v>0.283129470307318</v>
       </c>
       <c r="V25">
-        <v>28.556518836147099</v>
+        <v>17.8957893663645</v>
       </c>
       <c r="W25">
-        <v>41.700780159030899</v>
+        <v>24.979539492522498</v>
       </c>
       <c r="X25">
-        <v>0.31008723883656197</v>
+        <v>0.74309209572177304</v>
       </c>
       <c r="Y25">
-        <v>0.62435873392992602</v>
+        <v>0.46030227613773</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -35063,7 +35064,7 @@
         <v>0.60541946754327003</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -35140,7 +35141,7 @@
         <v>0.60007994585420998</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -35217,7 +35218,7 @@
         <v>0.60064893874061598</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -35294,7 +35295,7 @@
         <v>0.60780231716530797</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -35371,7 +35372,7 @@
         <v>0.61785163747933403</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -35448,7 +35449,7 @@
         <v>0.62640648240374597</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -35525,7 +35526,7 @@
         <v>0.59033239868655596</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -35602,7 +35603,7 @@
         <v>0.58908326067356198</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -35679,7 +35680,7 @@
         <v>0.58124605706343702</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -35756,7 +35757,7 @@
         <v>0.58412889872493301</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -35833,7 +35834,7 @@
         <v>0.58162025518572902</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -35910,7 +35911,7 @@
         <v>0.58022579116322603</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -35987,7 +35988,7 @@
         <v>0.58757214669605495</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -36064,7 +36065,7 @@
         <v>0.59468983320775903</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -36141,7 +36142,7 @@
         <v>0.59348820725467</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -36218,7 +36219,7 @@
         <v>0.59638752797324801</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -36295,7 +36296,7 @@
         <v>0.60506478552673304</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -36372,7 +36373,7 @@
         <v>0.60704218476975702</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -36449,7 +36450,7 @@
         <v>0.61482718947514503</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -36526,7 +36527,7 @@
         <v>0.61215619903486396</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -36603,7 +36604,7 @@
         <v>0.612286591838901</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -36680,7 +36681,7 @@
         <v>0.61873964469761999</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -36757,7 +36758,7 @@
         <v>0.62077021416817701</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -36834,7 +36835,7 @@
         <v>0.62513951217928598</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -36911,7 +36912,7 @@
         <v>0.622200656788511</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -36988,7 +36989,7 @@
         <v>0.62748194257591405</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -37065,7 +37066,7 @@
         <v>0.62093411245711405</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -37142,7 +37143,7 @@
         <v>0.62606851319163304</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -37219,7 +37220,7 @@
         <v>0.62063825390219696</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -37296,7 +37297,7 @@
         <v>0.62226434684860898</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -37373,7 +37374,7 @@
         <v>0.61610295446839503</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -37450,7 +37451,7 @@
         <v>0.61032624990880202</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -37527,7 +37528,7 @@
         <v>0.60518956371158295</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -37604,7 +37605,7 @@
         <v>0.60745257912705897</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -37681,7 +37682,7 @@
         <v>0.60082638307203196</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -37758,7 +37759,7 @@
         <v>0.60089999116186099</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -37835,7 +37836,7 @@
         <v>0.603042736013637</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -37912,7 +37913,7 @@
         <v>0.60809440909275703</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -37989,7 +37990,7 @@
         <v>0.60842837694145502</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -38066,7 +38067,7 @@
         <v>0.60736924128824299</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -38143,7 +38144,7 @@
         <v>0.60416483613273597</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -38220,7 +38221,7 @@
         <v>0.60306012314259605</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -38297,7 +38298,7 @@
         <v>0.60499089225378899</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -38374,7 +38375,7 @@
         <v>0.60879054261439602</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -38451,7 +38452,7 @@
         <v>0.59984438571360699</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -38528,7 +38529,7 @@
         <v>0.59225350417968203</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -38605,7 +38606,7 @@
         <v>0.59328122122238802</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -38729,9 +38730,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -38808,7 +38809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -38885,7 +38886,7 @@
         <v>0.23216516140844001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -38962,7 +38963,7 @@
         <v>0.26857465389834201</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -39039,7 +39040,7 @@
         <v>0.30745514668495</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -39116,7 +39117,7 @@
         <v>0.342753792882246</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -39193,7 +39194,7 @@
         <v>0.37242615618368502</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -39270,7 +39271,7 @@
         <v>0.394969884837784</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -39347,7 +39348,7 @@
         <v>0.41030237443506201</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -39424,7 +39425,7 @@
         <v>0.42079327847147602</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -39501,7 +39502,7 @@
         <v>0.42830583893275098</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -39578,7 +39579,7 @@
         <v>0.43408504805869202</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -39655,7 +39656,7 @@
         <v>0.43841752282623198</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -39732,7 +39733,7 @@
         <v>0.44210559814599298</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -39809,7 +39810,7 @@
         <v>0.44531929245733098</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -39886,7 +39887,7 @@
         <v>0.44835825171412802</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -39963,7 +39964,7 @@
         <v>0.45091001287736399</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -40040,7 +40041,7 @@
         <v>0.45317777617240801</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -40117,7 +40118,7 @@
         <v>0.45520994451755198</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -40194,7 +40195,7 @@
         <v>0.45666584438330299</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -40271,7 +40272,7 @@
         <v>0.45824603001631298</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -40348,7 +40349,7 @@
         <v>0.45992928395888899</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -40425,7 +40426,7 @@
         <v>0.46184076312976202</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -40502,7 +40503,7 @@
         <v>0.46389627037536502</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -40579,7 +40580,7 @@
         <v>0.46586673832873499</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -40656,7 +40657,7 @@
         <v>0.46767984746272601</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -40733,7 +40734,7 @@
         <v>0.46922382977903199</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -40810,7 +40811,7 @@
         <v>0.47054102882813098</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -40887,7 +40888,7 @@
         <v>0.47167307152059501</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -40964,7 +40965,7 @@
         <v>0.47279261662556399</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -41041,7 +41042,7 @@
         <v>0.47395163070645502</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -41118,7 +41119,7 @@
         <v>0.47499398504491602</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -41195,7 +41196,7 @@
         <v>0.47596865185187998</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -41272,7 +41273,7 @@
         <v>0.47708403716731301</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -41349,7 +41350,7 @@
         <v>0.47833500205782098</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -41426,7 +41427,7 @@
         <v>0.47956753512601402</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -41503,7 +41504,7 @@
         <v>0.48064290307457802</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -41580,7 +41581,7 @@
         <v>0.48159851425117101</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -41657,7 +41658,7 @@
         <v>0.48235512828785998</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -41734,7 +41735,7 @@
         <v>0.48290877034484803</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -41811,7 +41812,7 @@
         <v>0.48336506639298199</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -41888,7 +41889,7 @@
         <v>0.483768305704047</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -41965,7 +41966,7 @@
         <v>0.48407247677523002</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -42042,7 +42043,7 @@
         <v>0.48423765079596998</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -42119,7 +42120,7 @@
         <v>0.48429282147841302</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -42196,7 +42197,7 @@
         <v>0.48429736676798901</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -42273,7 +42274,7 @@
         <v>0.48428299996860003</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -42350,7 +42351,7 @@
         <v>0.484315954772012</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -42427,7 +42428,7 @@
         <v>0.48440636907277801</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -42504,7 +42505,7 @@
         <v>0.48451316291622398</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -42581,7 +42582,7 @@
         <v>0.48460661481136502</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -42658,7 +42659,7 @@
         <v>0.484664149385514</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -42735,7 +42736,7 @@
         <v>0.48473321594170898</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -42812,7 +42813,7 @@
         <v>0.48489330334163699</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -42889,7 +42890,7 @@
         <v>0.48509237649419301</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -42966,7 +42967,7 @@
         <v>0.485260348858852</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -43043,7 +43044,7 @@
         <v>0.48541406008023502</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -43120,7 +43121,7 @@
         <v>0.48547302511138102</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -43197,7 +43198,7 @@
         <v>0.48546927451192701</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -43274,7 +43275,7 @@
         <v>0.48543388620519401</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -43351,7 +43352,7 @@
         <v>0.48541178712323502</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -43428,7 +43429,7 @@
         <v>0.48549595885491398</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -43505,7 +43506,7 @@
         <v>0.48565488681649499</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -43582,7 +43583,7 @@
         <v>0.48584808867587798</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -43659,7 +43660,7 @@
         <v>0.48610556205649302</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -43736,7 +43737,7 @@
         <v>0.48629057654545299</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -43813,7 +43814,7 @@
         <v>0.48639961920082497</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -43890,7 +43891,7 @@
         <v>0.48644135766912799</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -43967,7 +43968,7 @@
         <v>0.486503239286178</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -44044,7 +44045,7 @@
         <v>0.48656315394097299</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -44121,7 +44122,7 @@
         <v>0.486609933130077</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -44198,7 +44199,7 @@
         <v>0.48661666177399998</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -44275,7 +44276,7 @@
         <v>0.48662270120529</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -44394,13 +44395,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84181D97-CD81-3842-98F7-2BD02D541B8E}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -44420,12 +44421,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.68114031711595</v>
+        <v>2.4473886841580299</v>
       </c>
       <c r="D2">
         <v>5.1686961150335202</v>
@@ -44434,12 +44435,12 @@
         <v>5.4583333333333304</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3.2982780256241302</v>
+        <v>3.0862326688405601</v>
       </c>
       <c r="D3">
         <v>7.2391219318960696</v>
@@ -44448,12 +44449,12 @@
         <v>7.7083333333333304</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.7777636968920802</v>
+        <v>4.3557468080847004</v>
       </c>
       <c r="D4">
         <v>9.6732401783228799</v>
@@ -44462,12 +44463,12 @@
         <v>9.4166666666666607</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>6.9322619249154398</v>
+        <v>6.0902254666286204</v>
       </c>
       <c r="D5">
         <v>12.1121484996983</v>
@@ -44476,12 +44477,12 @@
         <v>10.0833333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>9.6649519666964299</v>
+        <v>8.20550420059309</v>
       </c>
       <c r="D6">
         <v>14.369732908206</v>
@@ -44490,12 +44491,12 @@
         <v>10.7083333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>12.8476483043963</v>
+        <v>10.626290026968499</v>
       </c>
       <c r="D7">
         <v>16.318047264008701</v>
@@ -44504,12 +44505,12 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>16.1847047552696</v>
+        <v>13.187267547686901</v>
       </c>
       <c r="D8">
         <v>17.9273690640693</v>
@@ -44518,12 +44519,12 @@
         <v>12.125</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>19.507146617530299</v>
+        <v>15.7753222280563</v>
       </c>
       <c r="D9">
         <v>19.217904336634</v>
@@ -44532,12 +44533,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>22.549290276861299</v>
+        <v>18.2253277875839</v>
       </c>
       <c r="D10">
         <v>20.284991322201599</v>
@@ -44546,12 +44547,12 @@
         <v>15.7916666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>25.275635151333699</v>
+        <v>20.4693871175913</v>
       </c>
       <c r="D11">
         <v>21.177670398726999</v>
@@ -44560,12 +44561,12 @@
         <v>17.3333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>27.242817329047401</v>
+        <v>22.313934701606001</v>
       </c>
       <c r="D12">
         <v>21.898437232943198</v>
@@ -44574,12 +44575,12 @@
         <v>17.0833333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>28.870650663886899</v>
+        <v>23.865821280369101</v>
       </c>
       <c r="D13">
         <v>22.499063474708201</v>
@@ -44588,12 +44589,12 @@
         <v>18.125</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>30.105582664875701</v>
+        <v>24.991423088997401</v>
       </c>
       <c r="D14">
         <v>23.0150613173609</v>
@@ -44602,12 +44603,12 @@
         <v>18.3333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>31.178538509852601</v>
+        <v>25.806709320731098</v>
       </c>
       <c r="D15">
         <v>23.4390789823373</v>
@@ -44616,12 +44617,12 @@
         <v>17.2083333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>32.219894277326397</v>
+        <v>26.5656117813705</v>
       </c>
       <c r="D16">
         <v>23.7833474364597</v>
@@ -44630,12 +44631,12 @@
         <v>17.5416666666666</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>33.235699934210103</v>
+        <v>27.122316108318799</v>
       </c>
       <c r="D17">
         <v>24.071047944133099</v>
@@ -44644,12 +44645,12 @@
         <v>16.6666666666666</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>34.139023550003898</v>
+        <v>27.6246396674767</v>
       </c>
       <c r="D18">
         <v>24.3250058382982</v>
@@ -44658,12 +44659,12 @@
         <v>15.7083333333333</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>35.091861358872499</v>
+        <v>28.0974159582528</v>
       </c>
       <c r="D19">
         <v>24.545745912007899</v>
@@ -44672,12 +44673,12 @@
         <v>16.0416666666666</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20">
-        <v>35.599579915578502</v>
+        <v>28.6118697271176</v>
       </c>
       <c r="D20">
         <v>24.7462377886986</v>
@@ -44686,12 +44687,12 @@
         <v>15.9166666666666</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21">
-        <v>36.223314231084203</v>
+        <v>29.027057659884299</v>
       </c>
       <c r="D21">
         <v>24.942649654811198</v>
@@ -44700,12 +44701,12 @@
         <v>16.625</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22">
-        <v>36.575349686324898</v>
+        <v>29.420343191141502</v>
       </c>
       <c r="D22">
         <v>25.122337677981701</v>
@@ -44714,12 +44715,12 @@
         <v>17.6666666666666</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23">
-        <v>36.688722305452401</v>
+        <v>29.702442499681101</v>
       </c>
       <c r="D23">
         <v>25.286484798765699</v>
@@ -44728,12 +44729,12 @@
         <v>20.6666666666666</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24">
-        <v>36.942026394883797</v>
+        <v>30.181686557447598</v>
       </c>
       <c r="D24">
         <v>25.4373939498327</v>
@@ -44742,12 +44743,12 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25">
-        <v>37.033271372337701</v>
+        <v>30.565394654893598</v>
       </c>
       <c r="D25">
         <v>25.579909015796101</v>
@@ -44771,9 +44772,9 @@
       <selection activeCell="D1" sqref="D1:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>0</v>
       </c>
@@ -44787,7 +44788,7 @@
         <v>5.4583333333333304</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -44801,7 +44802,7 @@
         <v>7.7083333333333304</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -44815,7 +44816,7 @@
         <v>9.4166666666666607</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -44829,7 +44830,7 @@
         <v>10.0833333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -44843,7 +44844,7 @@
         <v>10.7083333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -44857,7 +44858,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -44871,7 +44872,7 @@
         <v>12.125</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -44885,7 +44886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -44899,7 +44900,7 @@
         <v>15.7916666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -44913,7 +44914,7 @@
         <v>17.3333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -44927,7 +44928,7 @@
         <v>17.0833333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -44941,7 +44942,7 @@
         <v>18.125</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -44955,7 +44956,7 @@
         <v>18.3333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -44969,7 +44970,7 @@
         <v>17.2083333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -44983,7 +44984,7 @@
         <v>17.5416666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -44997,7 +44998,7 @@
         <v>16.6666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -45011,7 +45012,7 @@
         <v>15.7083333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -45025,7 +45026,7 @@
         <v>16.0416666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -45039,7 +45040,7 @@
         <v>15.9166666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -45053,7 +45054,7 @@
         <v>16.625</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -45067,7 +45068,7 @@
         <v>17.6666666666666</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -45081,7 +45082,7 @@
         <v>20.6666666666666</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -45095,7 +45096,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -45109,7 +45110,7 @@
         <v>20.5416666666666</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4">
       <c r="D35" s="1"/>
     </row>
   </sheetData>

--- a/reports/模型结果记录.xlsx
+++ b/reports/模型结果记录.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luolei/Documents/Git_Repository_Rockontrol/pollution_statistic_forecast_app/reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luolei/Documents/Git_Repository_Dreisteine/time_series_relevant/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F52B3ED-EFD8-3C43-A083-9590D280510D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263101F0-3697-3D42-89B2-FB482785D91E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="460" windowWidth="36920" windowHeight="21140" activeTab="1" xr2:uid="{CA83BF3C-4499-A241-A127-64E264066C21}"/>
+    <workbookView xWindow="1340" yWindow="460" windowWidth="27460" windowHeight="17540" activeTab="1" xr2:uid="{CA83BF3C-4499-A241-A127-64E264066C21}"/>
   </bookViews>
   <sheets>
     <sheet name="模型说明" sheetId="3" r:id="rId1"/>
@@ -33781,7 +33781,7 @@
   <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
